--- a/capiq_data/in_process_data/IQ4303924.xlsx
+++ b/capiq_data/in_process_data/IQ4303924.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEB2A866-CD98-4960-B284-CC2BCD86A5B9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52D46181-AA75-4B0C-8AFA-26428C1CBAD4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"5bd9b617-1253-4be8-9f2b-16faca5f2bba"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"d749e0d7-cb39-464d-89cc-85b747f5a69c"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$77</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$77</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$77</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$77</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$77</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$77</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$77</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$77</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$77</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$77</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$77</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$77</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$77</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$77</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$77</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$77</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$77</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$77</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$77</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$77</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$77</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$77</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$77</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$77</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$77</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$77</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$77</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,111 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +744,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,34 +838,34 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>37346</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>41.328000000000003</v>
+        <v>-21.766010000000001</v>
       </c>
       <c r="D2">
-        <v>674.06299999999999</v>
+        <v>72.050399999999996</v>
       </c>
       <c r="E2">
-        <v>191.08500000000001</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>287.5</v>
+        <v>33.328949999999999</v>
       </c>
       <c r="G2">
-        <v>836.87599999999998</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>2299.509</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>76.436999999999998</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>548.06600000000003</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -772,37 +877,37 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>225.321</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>885.34799999999996</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>602.37</v>
+        <v>43.962269999999997</v>
       </c>
       <c r="Q2">
-        <v>-72.989000000000004</v>
+        <v>-1.24E-3</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>37346</v>
       </c>
       <c r="S2">
-        <v>12000</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>1414.1610000000001</v>
+        <v>160.10542000000001</v>
       </c>
       <c r="U2">
-        <v>95.688999999999993</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>14.62</v>
+        <v>4.7392000000000003</v>
       </c>
       <c r="W2">
         <v>0</v>
       </c>
       <c r="X2">
-        <v>9.6859999999999999</v>
+        <v>-3.6533099999999998</v>
       </c>
       <c r="Y2">
         <v>0</v>
@@ -811,39 +916,39 @@
         <v>0</v>
       </c>
       <c r="AA2">
-        <v>41.328000000000003</v>
+        <v>-21.766010000000001</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>37437</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>58.182000000000002</v>
+        <v>-21.766010000000001</v>
       </c>
       <c r="D3">
-        <v>786.64800000000002</v>
+        <v>72.050399999999996</v>
       </c>
       <c r="E3">
-        <v>222.58099999999999</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>343.64600000000002</v>
+        <v>33.328949999999999</v>
       </c>
       <c r="G3">
-        <v>852.11699999999996</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>2355.3789999999999</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>75.376999999999995</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>544.45100000000002</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -852,40 +957,40 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>-635.41700000000003</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>208.27199999999999</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>870.00900000000001</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>559.46799999999996</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>-31.172000000000001</v>
+        <v>-1.24E-3</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>37437</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>1485.37</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>64.516999999999996</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>77.314999999999998</v>
+        <v>4.7392000000000003</v>
       </c>
       <c r="W3">
         <v>0</v>
       </c>
       <c r="X3">
-        <v>-46.987000000000002</v>
+        <v>-3.6533099999999998</v>
       </c>
       <c r="Y3">
         <v>0</v>
@@ -894,39 +999,39 @@
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>58.182000000000002</v>
+        <v>-21.766010000000001</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>37529</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>46.706000000000003</v>
+        <v>2.3595199999999998</v>
       </c>
       <c r="D4">
-        <v>759.68399999999997</v>
+        <v>71.859710000000007</v>
       </c>
       <c r="E4">
-        <v>236.62799999999999</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>322.23599999999999</v>
+        <v>33.144669999999998</v>
       </c>
       <c r="G4">
-        <v>890.37599999999998</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>2417.7139999999999</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>77.950999999999993</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>571.74099999999999</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -938,37 +1043,37 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>193.46899999999999</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>882.01199999999994</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>587.26099999999997</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>-22.260999999999999</v>
+        <v>1.0310699999999999</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>37529</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>1535.702</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>42.256</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>23.765000000000001</v>
+        <v>4.9809599999999996</v>
       </c>
       <c r="W4">
         <v>0</v>
       </c>
       <c r="X4">
-        <v>30.454000000000001</v>
+        <v>-2.1850800000000001</v>
       </c>
       <c r="Y4">
         <v>0</v>
@@ -977,39 +1082,39 @@
         <v>0</v>
       </c>
       <c r="AA4">
-        <v>46.706000000000003</v>
+        <v>2.3595199999999998</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>37621</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>49.231000000000002</v>
+        <v>2.2789199999999998</v>
       </c>
       <c r="D5">
-        <v>783.89800000000002</v>
+        <v>71.164789999999996</v>
       </c>
       <c r="E5">
-        <v>231.14699999999999</v>
+        <v>18.592230000000001</v>
       </c>
       <c r="F5">
-        <v>334.322</v>
+        <v>32.748930000000001</v>
       </c>
       <c r="G5">
-        <v>936.59</v>
+        <v>74.403620000000004</v>
       </c>
       <c r="H5">
-        <v>2538.0120000000002</v>
+        <v>176.74666999999999</v>
       </c>
       <c r="I5">
-        <v>84.495999999999995</v>
+        <v>4.5355400000000001</v>
       </c>
       <c r="J5">
-        <v>621.66800000000001</v>
+        <v>27.755800000000001</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1021,37 +1126,37 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>227.52600000000001</v>
+        <v>23.734030000000001</v>
       </c>
       <c r="O5">
-        <v>958.28899999999999</v>
+        <v>55.617620000000002</v>
       </c>
       <c r="P5">
-        <v>640.58299999999997</v>
+        <v>34.205240000000003</v>
       </c>
       <c r="Q5">
-        <v>2.8559999999999999</v>
+        <v>-2.0311499999999998</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>37621</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>1825</v>
       </c>
       <c r="T5">
-        <v>1579.723</v>
+        <v>121.12905000000001</v>
       </c>
       <c r="U5">
-        <v>45.112000000000002</v>
+        <v>0.58448</v>
       </c>
       <c r="V5">
-        <v>58.101999999999997</v>
+        <v>3.2810999999999999</v>
       </c>
       <c r="W5">
         <v>0</v>
       </c>
       <c r="X5">
-        <v>47.255000000000003</v>
+        <v>-2.5050599999999998</v>
       </c>
       <c r="Y5">
         <v>0</v>
@@ -1060,39 +1165,39 @@
         <v>0</v>
       </c>
       <c r="AA5">
-        <v>49.231000000000002</v>
+        <v>2.2789199999999998</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>37711</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>56.145000000000003</v>
+        <v>3.9400900000000001</v>
       </c>
       <c r="D6">
-        <v>939.63199999999995</v>
+        <v>79.255920000000003</v>
       </c>
       <c r="E6">
-        <v>281.76400000000001</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>391.78899999999999</v>
+        <v>37.452939999999998</v>
       </c>
       <c r="G6">
-        <v>1149.7349999999999</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>3199.7040000000002</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>210.875</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>937.15200000000004</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1101,40 +1206,40 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>-1.3587499999999999</v>
       </c>
       <c r="N6">
-        <v>397.69299999999998</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>1555.6189999999999</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>966.67600000000004</v>
+        <v>34.205240000000003</v>
       </c>
       <c r="Q6">
-        <v>3.1349999999999998</v>
+        <v>0.95570999999999995</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>37711</v>
       </c>
       <c r="S6">
-        <v>17900</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>1644.085</v>
+        <v>121.12905000000001</v>
       </c>
       <c r="U6">
-        <v>48.247</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>52.59</v>
+        <v>5.1122800000000002</v>
       </c>
       <c r="W6">
         <v>0</v>
       </c>
       <c r="X6">
-        <v>280.68900000000002</v>
+        <v>8.2890000000000005E-2</v>
       </c>
       <c r="Y6">
         <v>0</v>
@@ -1143,39 +1248,39 @@
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>56.145000000000003</v>
+        <v>3.9400900000000001</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>37802</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>80.991</v>
+        <v>4.1190699999999998</v>
       </c>
       <c r="D7">
-        <v>1031.777</v>
+        <v>81.017160000000004</v>
       </c>
       <c r="E7">
-        <v>310.55200000000002</v>
+        <v>20.10005</v>
       </c>
       <c r="F7">
-        <v>439.08300000000003</v>
+        <v>38.34469</v>
       </c>
       <c r="G7">
-        <v>1174.278</v>
+        <v>79.301749999999998</v>
       </c>
       <c r="H7">
-        <v>3260.0010000000002</v>
+        <v>183.74458000000001</v>
       </c>
       <c r="I7">
-        <v>212.53800000000001</v>
+        <v>4.8509500000000001</v>
       </c>
       <c r="J7">
-        <v>866.36800000000005</v>
+        <v>37.94509</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1184,40 +1289,40 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>-413.976</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>457.07400000000001</v>
+        <v>34.573860000000003</v>
       </c>
       <c r="O7">
-        <v>1514.9159999999999</v>
+        <v>77.7179</v>
       </c>
       <c r="P7">
-        <v>906.86599999999999</v>
+        <v>54.457009999999997</v>
       </c>
       <c r="Q7">
-        <v>6.9219999999999997</v>
+        <v>0.57938000000000001</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>37802</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>1825</v>
       </c>
       <c r="T7">
-        <v>1745.085</v>
+        <v>106.02668</v>
       </c>
       <c r="U7">
-        <v>55.168999999999997</v>
+        <v>2.11957</v>
       </c>
       <c r="V7">
-        <v>110.155</v>
+        <v>5.1964600000000001</v>
       </c>
       <c r="W7">
         <v>0</v>
       </c>
       <c r="X7">
-        <v>-57.747</v>
+        <v>-2.6982200000000001</v>
       </c>
       <c r="Y7">
         <v>0</v>
@@ -1226,39 +1331,39 @@
         <v>0</v>
       </c>
       <c r="AA7">
-        <v>80.991</v>
+        <v>4.1190699999999998</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>37894</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>63.997999999999998</v>
+        <v>3.51877</v>
       </c>
       <c r="D8">
-        <v>1006.5309999999999</v>
+        <v>83.472459999999998</v>
       </c>
       <c r="E8">
-        <v>309.45400000000001</v>
+        <v>21.036570000000001</v>
       </c>
       <c r="F8">
-        <v>413.53100000000001</v>
+        <v>39.04092</v>
       </c>
       <c r="G8">
-        <v>1253.0070000000001</v>
+        <v>80.220089999999999</v>
       </c>
       <c r="H8">
-        <v>3425.4090000000001</v>
+        <v>185.04773</v>
       </c>
       <c r="I8">
-        <v>224.27600000000001</v>
+        <v>5.5149999999999997</v>
       </c>
       <c r="J8">
-        <v>969.33500000000004</v>
+        <v>31.301159999999999</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1270,37 +1375,37 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>445.322</v>
+        <v>38.437690000000003</v>
       </c>
       <c r="O8">
-        <v>1611.681</v>
+        <v>74.747879999999995</v>
       </c>
       <c r="P8">
-        <v>1015.7140000000001</v>
+        <v>49.110889999999998</v>
       </c>
       <c r="Q8">
-        <v>4.1840000000000002</v>
+        <v>-0.59994000000000003</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>37894</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>1813.7280000000001</v>
+        <v>110.29985000000001</v>
       </c>
       <c r="U8">
-        <v>59.353000000000002</v>
+        <v>1.51963</v>
       </c>
       <c r="V8">
-        <v>10.856999999999999</v>
+        <v>6.7171500000000002</v>
       </c>
       <c r="W8">
         <v>0</v>
       </c>
       <c r="X8">
-        <v>109.208</v>
+        <v>-4.8508100000000001</v>
       </c>
       <c r="Y8">
         <v>0</v>
@@ -1309,39 +1414,39 @@
         <v>0</v>
       </c>
       <c r="AA8">
-        <v>63.997999999999998</v>
+        <v>3.51877</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>37986</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>54.048000000000002</v>
+        <v>2.99783</v>
       </c>
       <c r="D9">
-        <v>1016.707</v>
+        <v>84.228459999999998</v>
       </c>
       <c r="E9">
-        <v>301.89100000000002</v>
+        <v>22.497050000000002</v>
       </c>
       <c r="F9">
-        <v>409.20499999999998</v>
+        <v>38.89761</v>
       </c>
       <c r="G9">
-        <v>1296.3489999999999</v>
+        <v>95.705439999999996</v>
       </c>
       <c r="H9">
-        <v>3502.5749999999998</v>
+        <v>203.15391</v>
       </c>
       <c r="I9">
-        <v>219.09800000000001</v>
+        <v>6.8312900000000001</v>
       </c>
       <c r="J9">
-        <v>947</v>
+        <v>2.4441199999999998</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1353,37 +1458,37 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>464.51900000000001</v>
+        <v>21.521070000000002</v>
       </c>
       <c r="O9">
-        <v>1613.934</v>
+        <v>29.1433</v>
       </c>
       <c r="P9">
-        <v>999.10299999999995</v>
+        <v>3.9973900000000002</v>
       </c>
       <c r="Q9">
-        <v>9.8610000000000007</v>
+        <v>14.5619</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>37986</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>1900</v>
       </c>
       <c r="T9">
-        <v>1888.6410000000001</v>
+        <v>174.01061000000001</v>
       </c>
       <c r="U9">
-        <v>69.213999999999999</v>
+        <v>16.081530000000001</v>
       </c>
       <c r="V9">
-        <v>61.06</v>
+        <v>3.9234599999999999</v>
       </c>
       <c r="W9">
         <v>0</v>
       </c>
       <c r="X9">
-        <v>-20.181000000000001</v>
+        <v>14.235900000000001</v>
       </c>
       <c r="Y9">
         <v>0</v>
@@ -1392,39 +1497,39 @@
         <v>0</v>
       </c>
       <c r="AA9">
-        <v>54.048000000000002</v>
+        <v>2.99783</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>38077</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>62.188000000000002</v>
+        <v>5.6349999999999998</v>
       </c>
       <c r="D10">
-        <v>1067.915</v>
+        <v>100.07299999999999</v>
       </c>
       <c r="E10">
-        <v>311.80799999999999</v>
+        <v>25.034379999999999</v>
       </c>
       <c r="F10">
-        <v>444.42099999999999</v>
+        <v>46.996000000000002</v>
       </c>
       <c r="G10">
-        <v>1384.3510000000001</v>
+        <v>98.034630000000007</v>
       </c>
       <c r="H10">
-        <v>3723.4560000000001</v>
+        <v>251.42254</v>
       </c>
       <c r="I10">
-        <v>219.33500000000001</v>
+        <v>9.7160499999999992</v>
       </c>
       <c r="J10">
-        <v>1061.7</v>
+        <v>32.97983</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1436,78 +1541,78 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>487.94400000000002</v>
+        <v>28.837949999999999</v>
       </c>
       <c r="O10">
-        <v>1759.3620000000001</v>
+        <v>67.1173</v>
       </c>
       <c r="P10">
-        <v>1134.1210000000001</v>
+        <v>34.438139999999997</v>
       </c>
       <c r="Q10">
-        <v>-9.4440000000000008</v>
+        <v>-12.4</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>38077</v>
       </c>
       <c r="S10">
-        <v>20300</v>
+        <v>0</v>
       </c>
       <c r="T10">
-        <v>1964.0940000000001</v>
+        <v>184.30525</v>
       </c>
       <c r="U10">
-        <v>59.77</v>
+        <v>3.68194</v>
       </c>
       <c r="V10">
-        <v>24.117999999999999</v>
+        <v>5.8620000000000001</v>
       </c>
       <c r="W10">
         <v>0</v>
       </c>
       <c r="X10">
-        <v>125.792</v>
+        <v>28.675000000000001</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>-0.65</v>
       </c>
       <c r="AA10">
-        <v>62.188000000000002</v>
+        <v>5.6349999999999998</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>38168</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>84.591999999999999</v>
+        <v>5.343</v>
       </c>
       <c r="D11">
-        <v>1195.9970000000001</v>
+        <v>104.878</v>
       </c>
       <c r="E11">
-        <v>357.58</v>
+        <v>26.073399999999999</v>
       </c>
       <c r="F11">
-        <v>501.94900000000001</v>
+        <v>49.441000000000003</v>
       </c>
       <c r="G11">
-        <v>1399.5619999999999</v>
+        <v>100.03445000000001</v>
       </c>
       <c r="H11">
-        <v>3722.6990000000001</v>
+        <v>264.06079999999997</v>
       </c>
       <c r="I11">
-        <v>202.084</v>
+        <v>8.0246399999999998</v>
       </c>
       <c r="J11">
-        <v>1001.779</v>
+        <v>42.052799999999998</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1516,40 +1621,40 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>-125.815</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>504.73899999999998</v>
+        <v>24.886479999999999</v>
       </c>
       <c r="O11">
-        <v>1681.47</v>
+        <v>71.972290000000001</v>
       </c>
       <c r="P11">
-        <v>1081.798</v>
+        <v>42.363210000000002</v>
       </c>
       <c r="Q11">
-        <v>3.2269999999999999</v>
+        <v>-1.7190000000000001</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>38168</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>2041.229</v>
+        <v>192.08850000000001</v>
       </c>
       <c r="U11">
-        <v>62.997</v>
+        <v>1.9627399999999999</v>
       </c>
       <c r="V11">
-        <v>106.43300000000001</v>
+        <v>2.7669999999999999</v>
       </c>
       <c r="W11">
         <v>0</v>
       </c>
       <c r="X11">
-        <v>-67.912999999999997</v>
+        <v>8.7989999999999995</v>
       </c>
       <c r="Y11">
         <v>0</v>
@@ -1558,39 +1663,39 @@
         <v>0</v>
       </c>
       <c r="AA11">
-        <v>84.591999999999999</v>
+        <v>5.343</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>38260</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>75.721999999999994</v>
+        <v>4.5620000000000003</v>
       </c>
       <c r="D12">
-        <v>1251.748</v>
+        <v>106.045</v>
       </c>
       <c r="E12">
-        <v>413.21499999999997</v>
+        <v>26.410520000000002</v>
       </c>
       <c r="F12">
-        <v>509.87299999999999</v>
+        <v>48.683</v>
       </c>
       <c r="G12">
-        <v>1658.49</v>
+        <v>96.844700000000003</v>
       </c>
       <c r="H12">
-        <v>4218.3149999999996</v>
+        <v>263.25108</v>
       </c>
       <c r="I12">
-        <v>263.565</v>
+        <v>7.6805700000000003</v>
       </c>
       <c r="J12">
-        <v>1321.3119999999999</v>
+        <v>36.001550000000002</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1602,37 +1707,37 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>559.11</v>
+        <v>25.270679999999999</v>
       </c>
       <c r="O12">
-        <v>2080.6619999999998</v>
+        <v>66.071100000000001</v>
       </c>
       <c r="P12">
-        <v>1386.2739999999999</v>
+        <v>36.314120000000003</v>
       </c>
       <c r="Q12">
-        <v>98.593000000000004</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>38260</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>2137.6529999999998</v>
+        <v>197.17998</v>
       </c>
       <c r="U12">
-        <v>161.59</v>
+        <v>3.08264</v>
       </c>
       <c r="V12">
-        <v>103.057</v>
+        <v>11.555999999999999</v>
       </c>
       <c r="W12">
         <v>0</v>
       </c>
       <c r="X12">
-        <v>309.065</v>
+        <v>-5.2069999999999999</v>
       </c>
       <c r="Y12">
         <v>0</v>
@@ -1641,39 +1746,39 @@
         <v>0</v>
       </c>
       <c r="AA12">
-        <v>75.721999999999994</v>
+        <v>4.5620000000000003</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>38352</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>73.444999999999993</v>
+        <v>5.0330000000000004</v>
       </c>
       <c r="D13">
-        <v>1298.0940000000001</v>
+        <v>113.76</v>
       </c>
       <c r="E13">
-        <v>438.8</v>
+        <v>27.704999999999998</v>
       </c>
       <c r="F13">
-        <v>517.90700000000004</v>
+        <v>52.496000000000002</v>
       </c>
       <c r="G13">
-        <v>1675.6510000000001</v>
+        <v>107.44199999999999</v>
       </c>
       <c r="H13">
-        <v>4361.0590000000002</v>
+        <v>288.27499999999998</v>
       </c>
       <c r="I13">
-        <v>284.89999999999998</v>
+        <v>8.3740000000000006</v>
       </c>
       <c r="J13">
-        <v>1260.5</v>
+        <v>49.945</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1685,78 +1790,78 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>642.51300000000003</v>
+        <v>29.562999999999999</v>
       </c>
       <c r="O13">
-        <v>2106.953</v>
+        <v>84.203999999999994</v>
       </c>
       <c r="P13">
-        <v>1321.623</v>
+        <v>50.262</v>
       </c>
       <c r="Q13">
-        <v>-54.253</v>
+        <v>-1.4710000000000001</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>38352</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>2800</v>
       </c>
       <c r="T13">
-        <v>2254.1060000000002</v>
+        <v>204.071</v>
       </c>
       <c r="U13">
-        <v>107.337</v>
+        <v>1.6120000000000001</v>
       </c>
       <c r="V13">
-        <v>131.43899999999999</v>
+        <v>5.7160000000000002</v>
       </c>
       <c r="W13">
         <v>0</v>
       </c>
       <c r="X13">
-        <v>-71.832999999999998</v>
+        <v>15.185</v>
       </c>
       <c r="Y13">
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>-9.1359999999999992</v>
+        <v>0</v>
       </c>
       <c r="AA13">
-        <v>73.444999999999993</v>
+        <v>5.0330000000000004</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>38442</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>77.864000000000004</v>
+        <v>8.4009999999999998</v>
       </c>
       <c r="D14">
-        <v>1316.6890000000001</v>
+        <v>133.80699999999999</v>
       </c>
       <c r="E14">
-        <v>458.09399999999999</v>
+        <v>30.283999999999999</v>
       </c>
       <c r="F14">
-        <v>545.673</v>
+        <v>62.636000000000003</v>
       </c>
       <c r="G14">
-        <v>1799.817</v>
+        <v>117.89100000000001</v>
       </c>
       <c r="H14">
-        <v>4518.7740000000003</v>
+        <v>312.65899999999999</v>
       </c>
       <c r="I14">
-        <v>349.06900000000002</v>
+        <v>9.6509999999999998</v>
       </c>
       <c r="J14">
-        <v>1272.7159999999999</v>
+        <v>58.889000000000003</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1768,78 +1873,78 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>677.95299999999997</v>
+        <v>35.491</v>
       </c>
       <c r="O14">
-        <v>2168.029</v>
+        <v>99.084999999999994</v>
       </c>
       <c r="P14">
-        <v>1314.251</v>
+        <v>59.109000000000002</v>
       </c>
       <c r="Q14">
-        <v>43.151000000000003</v>
+        <v>2.1179999999999999</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>38442</v>
       </c>
       <c r="S14">
-        <v>23800</v>
+        <v>0</v>
       </c>
       <c r="T14">
-        <v>2350.7449999999999</v>
+        <v>213.57400000000001</v>
       </c>
       <c r="U14">
-        <v>150.488</v>
+        <v>3.73</v>
       </c>
       <c r="V14">
-        <v>87.126999999999995</v>
+        <v>11.311</v>
       </c>
       <c r="W14">
         <v>0</v>
       </c>
       <c r="X14">
-        <v>-3.3780000000000001</v>
+        <v>9.4429999999999996</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>3.5999999999999997E-2</v>
+        <v>0</v>
       </c>
       <c r="AA14">
-        <v>77.864000000000004</v>
+        <v>8.4009999999999998</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>38533</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>104.65300000000001</v>
+        <v>7.6269999999999998</v>
       </c>
       <c r="D15">
-        <v>1625.777</v>
+        <v>136.023</v>
       </c>
       <c r="E15">
-        <v>577.21199999999999</v>
+        <v>31.632999999999999</v>
       </c>
       <c r="F15">
-        <v>651.88400000000001</v>
+        <v>64.492000000000004</v>
       </c>
       <c r="G15">
-        <v>2093.4810000000002</v>
+        <v>119.313</v>
       </c>
       <c r="H15">
-        <v>5209.8280000000004</v>
+        <v>321.76600000000002</v>
       </c>
       <c r="I15">
-        <v>384.10199999999998</v>
+        <v>9.3640000000000008</v>
       </c>
       <c r="J15">
-        <v>1703.3869999999999</v>
+        <v>56.268999999999998</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1848,40 +1953,40 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>-398.952</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>775.91499999999996</v>
+        <v>34.304000000000002</v>
       </c>
       <c r="O15">
-        <v>2738.8009999999999</v>
+        <v>95.206000000000003</v>
       </c>
       <c r="P15">
-        <v>1738.4929999999999</v>
+        <v>56.545000000000002</v>
       </c>
       <c r="Q15">
-        <v>-37.241999999999997</v>
+        <v>-1.415</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>38533</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>2471.027</v>
+        <v>226.56</v>
       </c>
       <c r="U15">
-        <v>113.246</v>
+        <v>2.3149999999999999</v>
       </c>
       <c r="V15">
-        <v>97.009</v>
+        <v>9.1389999999999993</v>
       </c>
       <c r="W15">
         <v>0</v>
       </c>
       <c r="X15">
-        <v>386.21300000000002</v>
+        <v>0.45100000000000001</v>
       </c>
       <c r="Y15">
         <v>0</v>
@@ -1890,39 +1995,39 @@
         <v>0</v>
       </c>
       <c r="AA15">
-        <v>104.65300000000001</v>
+        <v>7.6269999999999998</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>38625</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>104.88200000000001</v>
+        <v>6.6029999999999998</v>
       </c>
       <c r="D16">
-        <v>1709.1320000000001</v>
+        <v>133.63999999999999</v>
       </c>
       <c r="E16">
-        <v>624.29999999999995</v>
+        <v>30.417999999999999</v>
       </c>
       <c r="F16">
-        <v>671.05899999999997</v>
+        <v>62.944000000000003</v>
       </c>
       <c r="G16">
-        <v>2240.7260000000001</v>
+        <v>123.17400000000001</v>
       </c>
       <c r="H16">
-        <v>5498.8450000000003</v>
+        <v>336.73500000000001</v>
       </c>
       <c r="I16">
-        <v>392.65899999999999</v>
+        <v>10.885</v>
       </c>
       <c r="J16">
-        <v>1886.769</v>
+        <v>55.198</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1934,78 +2039,78 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>750.20799999999997</v>
+        <v>38.902000000000001</v>
       </c>
       <c r="O16">
-        <v>2896.3290000000002</v>
+        <v>98.850999999999999</v>
       </c>
       <c r="P16">
-        <v>1958.2560000000001</v>
+        <v>55.606999999999999</v>
       </c>
       <c r="Q16">
-        <v>-3.6819999999999999</v>
+        <v>1.5229999999999999</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>38625</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>2602.5160000000001</v>
+        <v>237.88399999999999</v>
       </c>
       <c r="U16">
-        <v>109.56399999999999</v>
+        <v>3.8380000000000001</v>
       </c>
       <c r="V16">
-        <v>55.195</v>
+        <v>14.801</v>
       </c>
       <c r="W16">
         <v>0</v>
       </c>
       <c r="X16">
-        <v>120.258</v>
+        <v>1.903</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>-2.2000000000000002</v>
+        <v>0</v>
       </c>
       <c r="AA16">
-        <v>104.88200000000001</v>
+        <v>6.6029999999999998</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>38717</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>91.515000000000001</v>
+        <v>8.2560000000000002</v>
       </c>
       <c r="D17">
-        <v>1721.0239999999999</v>
+        <v>143.922</v>
       </c>
       <c r="E17">
-        <v>609.43399999999997</v>
+        <v>39.299999999999997</v>
       </c>
       <c r="F17">
-        <v>664.41099999999994</v>
+        <v>67.531999999999996</v>
       </c>
       <c r="G17">
-        <v>2345.538</v>
+        <v>151.33699999999999</v>
       </c>
       <c r="H17">
-        <v>5534.5780000000004</v>
+        <v>439.42599999999999</v>
       </c>
       <c r="I17">
-        <v>403.58699999999999</v>
+        <v>15.496</v>
       </c>
       <c r="J17">
-        <v>1830.6890000000001</v>
+        <v>45.996000000000002</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -2017,78 +2122,78 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>771.38800000000003</v>
+        <v>47.561</v>
       </c>
       <c r="O17">
-        <v>2866.884</v>
+        <v>98.206000000000003</v>
       </c>
       <c r="P17">
-        <v>1903.597</v>
+        <v>47.476999999999997</v>
       </c>
       <c r="Q17">
-        <v>135.08199999999999</v>
+        <v>-0.66500000000000004</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>38717</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="T17">
-        <v>2667.694</v>
+        <v>341.22</v>
       </c>
       <c r="U17">
-        <v>244.64599999999999</v>
+        <v>3.173</v>
       </c>
       <c r="V17">
-        <v>170.43799999999999</v>
+        <v>2.282</v>
       </c>
       <c r="W17">
         <v>0</v>
       </c>
       <c r="X17">
-        <v>16.939</v>
+        <v>78.253</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>2.2000000000000002</v>
+        <v>0.433</v>
       </c>
       <c r="AA17">
-        <v>91.515000000000001</v>
+        <v>8.2560000000000002</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>38807</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>80.468999999999994</v>
+        <v>12.084</v>
       </c>
       <c r="D18">
-        <v>1684.1310000000001</v>
+        <v>192.13900000000001</v>
       </c>
       <c r="E18">
-        <v>601.42200000000003</v>
+        <v>46.280999999999999</v>
       </c>
       <c r="F18">
-        <v>664.55899999999997</v>
+        <v>88.411000000000001</v>
       </c>
       <c r="G18">
-        <v>2235.6729999999998</v>
+        <v>179.68600000000001</v>
       </c>
       <c r="H18">
-        <v>5475.7389999999996</v>
+        <v>498.63600000000002</v>
       </c>
       <c r="I18">
-        <v>400.202</v>
+        <v>18.855</v>
       </c>
       <c r="J18">
-        <v>1786.7370000000001</v>
+        <v>80.283000000000001</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -2100,78 +2205,78 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>744.50400000000002</v>
+        <v>53.997999999999998</v>
       </c>
       <c r="O18">
-        <v>2755.0819999999999</v>
+        <v>140.29499999999999</v>
       </c>
       <c r="P18">
-        <v>1851.366</v>
+        <v>82.881</v>
       </c>
       <c r="Q18">
-        <v>-130.041</v>
+        <v>0.372</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>38807</v>
       </c>
       <c r="S18">
-        <v>29500</v>
+        <v>0</v>
       </c>
       <c r="T18">
-        <v>2720.6570000000002</v>
+        <v>358.34100000000001</v>
       </c>
       <c r="U18">
-        <v>114.605</v>
+        <v>3.5449999999999999</v>
       </c>
       <c r="V18">
-        <v>48.255000000000003</v>
+        <v>4.0940000000000003</v>
       </c>
       <c r="W18">
         <v>0</v>
       </c>
       <c r="X18">
-        <v>-4.407</v>
+        <v>36.484000000000002</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>-2.2000000000000002</v>
+        <v>0</v>
       </c>
       <c r="AA18">
-        <v>80.468999999999994</v>
+        <v>12.084</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>38898</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>107.095</v>
+        <v>11.662000000000001</v>
       </c>
       <c r="D19">
-        <v>1773.912</v>
+        <v>195.03700000000001</v>
       </c>
       <c r="E19">
-        <v>645.03700000000003</v>
+        <v>46.533999999999999</v>
       </c>
       <c r="F19">
-        <v>699.47900000000004</v>
+        <v>88.116</v>
       </c>
       <c r="G19">
-        <v>2337.1790000000001</v>
+        <v>185.822</v>
       </c>
       <c r="H19">
-        <v>5522.4660000000003</v>
+        <v>537.39200000000005</v>
       </c>
       <c r="I19">
-        <v>397.62299999999999</v>
+        <v>17.591999999999999</v>
       </c>
       <c r="J19">
-        <v>1675.0409999999999</v>
+        <v>102.86799999999999</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -2180,81 +2285,81 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>-167.274</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>772.31399999999996</v>
+        <v>53.871000000000002</v>
       </c>
       <c r="O19">
-        <v>2742.5590000000002</v>
+        <v>163.261</v>
       </c>
       <c r="P19">
-        <v>1739.3579999999999</v>
+        <v>107.46899999999999</v>
       </c>
       <c r="Q19">
-        <v>60.887</v>
+        <v>0.66200000000000003</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>38898</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>2779.9070000000002</v>
+        <v>374.13099999999997</v>
       </c>
       <c r="U19">
-        <v>175.49199999999999</v>
+        <v>4.2069999999999999</v>
       </c>
       <c r="V19">
-        <v>180.14500000000001</v>
+        <v>8.9670000000000005</v>
       </c>
       <c r="W19">
         <v>0</v>
       </c>
       <c r="X19">
-        <v>-80.412000000000006</v>
+        <v>25.431999999999999</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>0</v>
+        <v>0.84899999999999998</v>
       </c>
       <c r="AA19">
-        <v>107.095</v>
+        <v>11.662000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>38990</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>119.72199999999999</v>
+        <v>10.459</v>
       </c>
       <c r="D20">
-        <v>1838.07</v>
+        <v>197.65899999999999</v>
       </c>
       <c r="E20">
-        <v>651.27099999999996</v>
+        <v>45.768999999999998</v>
       </c>
       <c r="F20">
-        <v>723.94399999999996</v>
+        <v>89.436999999999998</v>
       </c>
       <c r="G20">
-        <v>2372.6210000000001</v>
+        <v>186.97900000000001</v>
       </c>
       <c r="H20">
-        <v>5634.5420000000004</v>
+        <v>555.17100000000005</v>
       </c>
       <c r="I20">
-        <v>392.95100000000002</v>
+        <v>17.507000000000001</v>
       </c>
       <c r="J20">
-        <v>1654.3150000000001</v>
+        <v>104.80800000000001</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -2266,37 +2371,37 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>726.36500000000001</v>
+        <v>54.235999999999997</v>
       </c>
       <c r="O20">
-        <v>2680.4490000000001</v>
+        <v>167.12899999999999</v>
       </c>
       <c r="P20">
-        <v>1694.819</v>
+        <v>109.23099999999999</v>
       </c>
       <c r="Q20">
-        <v>-32.069000000000003</v>
+        <v>2.149</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>38990</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>2954.0929999999998</v>
+        <v>388.04199999999997</v>
       </c>
       <c r="U20">
-        <v>143.423</v>
+        <v>6.3559999999999999</v>
       </c>
       <c r="V20">
-        <v>102.554</v>
+        <v>17.763000000000002</v>
       </c>
       <c r="W20">
         <v>0</v>
       </c>
       <c r="X20">
-        <v>-64.509</v>
+        <v>4.008</v>
       </c>
       <c r="Y20">
         <v>0</v>
@@ -2305,39 +2410,39 @@
         <v>0</v>
       </c>
       <c r="AA20">
-        <v>119.72199999999999</v>
+        <v>10.458</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>39082</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>101.346</v>
+        <v>10.19</v>
       </c>
       <c r="D21">
-        <v>1831.732</v>
+        <v>204.54599999999999</v>
       </c>
       <c r="E21">
-        <v>626.78</v>
+        <v>49.253999999999998</v>
       </c>
       <c r="F21">
-        <v>712.779</v>
+        <v>91.585999999999999</v>
       </c>
       <c r="G21">
-        <v>2387.143</v>
+        <v>183.81399999999999</v>
       </c>
       <c r="H21">
-        <v>5704.0320000000002</v>
+        <v>564.35500000000002</v>
       </c>
       <c r="I21">
-        <v>416.34100000000001</v>
+        <v>19.242000000000001</v>
       </c>
       <c r="J21">
-        <v>1572.2280000000001</v>
+        <v>91.962000000000003</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -2349,78 +2454,78 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>797.69799999999998</v>
+        <v>61.393999999999998</v>
       </c>
       <c r="O21">
-        <v>2667.319</v>
+        <v>163.15299999999999</v>
       </c>
       <c r="P21">
-        <v>1609.604</v>
+        <v>100.447</v>
       </c>
       <c r="Q21">
-        <v>-6.3369999999999997</v>
+        <v>-2.3250000000000002</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>39082</v>
       </c>
       <c r="S21">
-        <v>0</v>
+        <v>4270</v>
       </c>
       <c r="T21">
-        <v>3036.7130000000002</v>
+        <v>401.202</v>
       </c>
       <c r="U21">
-        <v>137.08600000000001</v>
+        <v>4.0309999999999997</v>
       </c>
       <c r="V21">
-        <v>222.29599999999999</v>
+        <v>21.556999999999999</v>
       </c>
       <c r="W21">
         <v>0</v>
       </c>
       <c r="X21">
-        <v>-81.695999999999998</v>
+        <v>-6.79</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>0</v>
+        <v>-1E-3</v>
       </c>
       <c r="AA21">
-        <v>101.346</v>
+        <v>10.19</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>39172</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>95.06</v>
+        <v>15.794</v>
       </c>
       <c r="D22">
-        <v>1748.9190000000001</v>
+        <v>235.31800000000001</v>
       </c>
       <c r="E22">
-        <v>590.16</v>
+        <v>57.667999999999999</v>
       </c>
       <c r="F22">
-        <v>697.327</v>
+        <v>109.29600000000001</v>
       </c>
       <c r="G22">
-        <v>2340.712</v>
+        <v>208.34299999999999</v>
       </c>
       <c r="H22">
-        <v>5647.8370000000004</v>
+        <v>607.79899999999998</v>
       </c>
       <c r="I22">
-        <v>415.58800000000002</v>
+        <v>22.148</v>
       </c>
       <c r="J22">
-        <v>1528.6679999999999</v>
+        <v>106.66200000000001</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -2432,78 +2537,78 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>751.97</v>
+        <v>72.751000000000005</v>
       </c>
       <c r="O22">
-        <v>2533.1550000000002</v>
+        <v>190.084</v>
       </c>
       <c r="P22">
-        <v>1586.049</v>
+        <v>117.038</v>
       </c>
       <c r="Q22">
-        <v>-49.689</v>
+        <v>1.85</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>39172</v>
       </c>
       <c r="S22">
-        <v>31100</v>
+        <v>0</v>
       </c>
       <c r="T22">
-        <v>3114.6819999999998</v>
+        <v>417.71499999999997</v>
       </c>
       <c r="U22">
-        <v>87.397000000000006</v>
+        <v>5.8810000000000002</v>
       </c>
       <c r="V22">
-        <v>39.286999999999999</v>
+        <v>10.43</v>
       </c>
       <c r="W22">
         <v>0</v>
       </c>
       <c r="X22">
-        <v>-11.92</v>
+        <v>15.074</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>-9.6820000000000004</v>
+        <v>0</v>
       </c>
       <c r="AA22">
-        <v>95.06</v>
+        <v>15.794</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>39263</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>112.17100000000001</v>
+        <v>14.016</v>
       </c>
       <c r="D23">
-        <v>1921.4760000000001</v>
+        <v>233.27799999999999</v>
       </c>
       <c r="E23">
-        <v>882.58199999999999</v>
+        <v>54.143000000000001</v>
       </c>
       <c r="F23">
-        <v>760.43700000000001</v>
+        <v>105.783</v>
       </c>
       <c r="G23">
-        <v>2993.8870000000002</v>
+        <v>226.39599999999999</v>
       </c>
       <c r="H23">
-        <v>7356.857</v>
+        <v>646.06899999999996</v>
       </c>
       <c r="I23">
-        <v>597.82600000000002</v>
+        <v>17.713999999999999</v>
       </c>
       <c r="J23">
-        <v>2744.5610000000001</v>
+        <v>128.905</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -2512,81 +2617,81 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>-951.95600000000002</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>1049.4100000000001</v>
+        <v>66.128</v>
       </c>
       <c r="O23">
-        <v>4122.4480000000003</v>
+        <v>208.779</v>
       </c>
       <c r="P23">
-        <v>2821.0360000000001</v>
+        <v>138.70699999999999</v>
       </c>
       <c r="Q23">
-        <v>141.82300000000001</v>
+        <v>2.9729999999999999</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>39263</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>3234.4090000000001</v>
+        <v>437.29</v>
       </c>
       <c r="U23">
-        <v>229.22</v>
+        <v>8.8539999999999992</v>
       </c>
       <c r="V23">
-        <v>134.84399999999999</v>
+        <v>3.0089999999999999</v>
       </c>
       <c r="W23">
         <v>0</v>
       </c>
       <c r="X23">
-        <v>633.16600000000005</v>
+        <v>24.54</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>0</v>
+        <v>-5.8849999999999998</v>
       </c>
       <c r="AA23">
-        <v>112.17100000000001</v>
+        <v>14.016</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>39355</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>142.785</v>
+        <v>14.558999999999999</v>
       </c>
       <c r="D24">
-        <v>2304.806</v>
+        <v>243.495</v>
       </c>
       <c r="E24">
-        <v>995.15300000000002</v>
+        <v>60.92</v>
       </c>
       <c r="F24">
-        <v>909.41800000000001</v>
+        <v>108.45699999999999</v>
       </c>
       <c r="G24">
-        <v>3298.4279999999999</v>
+        <v>455.42200000000003</v>
       </c>
       <c r="H24">
-        <v>8185.9440000000004</v>
+        <v>906.01300000000003</v>
       </c>
       <c r="I24">
-        <v>735.13800000000003</v>
+        <v>20.382999999999999</v>
       </c>
       <c r="J24">
-        <v>3280.3440000000001</v>
+        <v>1.696</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -2598,78 +2703,78 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1168.3820000000001</v>
+        <v>68.674999999999997</v>
       </c>
       <c r="O24">
-        <v>4878.3050000000003</v>
+        <v>87.221999999999994</v>
       </c>
       <c r="P24">
-        <v>3341.8850000000002</v>
+        <v>12.521000000000001</v>
       </c>
       <c r="Q24">
-        <v>43.982999999999997</v>
+        <v>216.48599999999999</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>39355</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>3307.6390000000001</v>
+        <v>818.79100000000005</v>
       </c>
       <c r="U24">
-        <v>273.20299999999997</v>
+        <v>225.34</v>
       </c>
       <c r="V24">
-        <v>227.071</v>
+        <v>18.068000000000001</v>
       </c>
       <c r="W24">
         <v>0</v>
       </c>
       <c r="X24">
-        <v>538.11400000000003</v>
+        <v>237.38200000000001</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>0</v>
+        <v>5.8849999999999998</v>
       </c>
       <c r="AA24">
-        <v>142.785</v>
+        <v>14.558999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>39447</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>122.688</v>
+        <v>21.532</v>
       </c>
       <c r="D25">
-        <v>2207.3429999999998</v>
+        <v>414.73399999999998</v>
       </c>
       <c r="E25">
-        <v>959.32100000000003</v>
+        <v>125.572</v>
       </c>
       <c r="F25">
-        <v>855.45600000000002</v>
+        <v>184.01300000000001</v>
       </c>
       <c r="G25">
-        <v>3295.5410000000002</v>
+        <v>553.29200000000003</v>
       </c>
       <c r="H25">
-        <v>8203.9519999999993</v>
+        <v>1692.655</v>
       </c>
       <c r="I25">
-        <v>682.71900000000005</v>
+        <v>68.870999999999995</v>
       </c>
       <c r="J25">
-        <v>3191.759</v>
+        <v>641.52599999999995</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -2681,37 +2786,37 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1149.2080000000001</v>
+        <v>163.82300000000001</v>
       </c>
       <c r="O25">
-        <v>4776.6750000000002</v>
+        <v>842.87800000000004</v>
       </c>
       <c r="P25">
-        <v>3266.8</v>
+        <v>658.46199999999999</v>
       </c>
       <c r="Q25">
-        <v>-1.3520000000000001</v>
+        <v>-151.09899999999999</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>39447</v>
       </c>
       <c r="S25">
-        <v>0</v>
+        <v>9100</v>
       </c>
       <c r="T25">
-        <v>3427.277</v>
+        <v>849.77700000000004</v>
       </c>
       <c r="U25">
-        <v>271.851</v>
+        <v>74.241</v>
       </c>
       <c r="V25">
-        <v>162.23599999999999</v>
+        <v>22.861999999999998</v>
       </c>
       <c r="W25">
         <v>0</v>
       </c>
       <c r="X25">
-        <v>-82.798000000000002</v>
+        <v>644.63300000000004</v>
       </c>
       <c r="Y25">
         <v>0</v>
@@ -2720,39 +2825,39 @@
         <v>0</v>
       </c>
       <c r="AA25">
-        <v>122.688</v>
+        <v>21.532</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>39538</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>30.878</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>491.90800000000002</v>
       </c>
       <c r="E26">
-        <v>860.54899999999998</v>
+        <v>133.89400000000001</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>223.31399999999999</v>
       </c>
       <c r="G26">
-        <v>3567.5940000000001</v>
+        <v>579.96600000000001</v>
       </c>
       <c r="H26">
-        <v>8303.1990000000005</v>
+        <v>1743.0150000000001</v>
       </c>
       <c r="I26">
-        <v>633.77300000000002</v>
+        <v>62.963000000000001</v>
       </c>
       <c r="J26">
-        <v>3278.79</v>
+        <v>634.15099999999995</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -2761,40 +2866,40 @@
         <v>0</v>
       </c>
       <c r="M26">
-        <v>0</v>
+        <v>-5.5490000000000004</v>
       </c>
       <c r="N26">
-        <v>1210.7850000000001</v>
+        <v>170.09299999999999</v>
       </c>
       <c r="O26">
-        <v>4860.25</v>
+        <v>841.11699999999996</v>
       </c>
       <c r="P26">
-        <v>3344.8989999999999</v>
+        <v>651.60299999999995</v>
       </c>
       <c r="Q26">
-        <v>0</v>
+        <v>11.169</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>39538</v>
       </c>
       <c r="S26">
-        <v>42500</v>
+        <v>0</v>
       </c>
       <c r="T26">
-        <v>3442.9490000000001</v>
+        <v>901.89800000000002</v>
       </c>
       <c r="U26">
-        <v>227.4</v>
+        <v>85.41</v>
       </c>
       <c r="V26">
-        <v>0</v>
+        <v>32.351999999999997</v>
       </c>
       <c r="W26">
         <v>0</v>
       </c>
       <c r="X26">
-        <v>0</v>
+        <v>-3.68</v>
       </c>
       <c r="Y26">
         <v>0</v>
@@ -2803,39 +2908,39 @@
         <v>0</v>
       </c>
       <c r="AA26">
-        <v>0</v>
+        <v>30.878</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>39629</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>136.27799999999999</v>
+        <v>0</v>
       </c>
       <c r="D27">
-        <v>2342.8429999999998</v>
+        <v>0</v>
       </c>
       <c r="E27">
-        <v>973.67</v>
+        <v>137.56399999999999</v>
       </c>
       <c r="F27">
-        <v>930.09299999999996</v>
+        <v>0</v>
       </c>
       <c r="G27">
-        <v>3318.1260000000002</v>
+        <v>605.05200000000002</v>
       </c>
       <c r="H27">
-        <v>8122.2460000000001</v>
+        <v>1779.61</v>
       </c>
       <c r="I27">
-        <v>651.11699999999996</v>
+        <v>59.534999999999997</v>
       </c>
       <c r="J27">
-        <v>2938.665</v>
+        <v>629.36699999999996</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -2844,40 +2949,40 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>-398.75799999999998</v>
+        <v>0</v>
       </c>
       <c r="N27">
-        <v>1159.701</v>
+        <v>169.84200000000001</v>
       </c>
       <c r="O27">
-        <v>4515.375</v>
+        <v>840.48199999999997</v>
       </c>
       <c r="P27">
-        <v>3030.6529999999998</v>
+        <v>647.42200000000003</v>
       </c>
       <c r="Q27">
-        <v>30.097999999999999</v>
+        <v>0</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>39629</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>3606.8710000000001</v>
+        <v>939.12800000000004</v>
       </c>
       <c r="U27">
-        <v>264.61399999999998</v>
+        <v>104.062</v>
       </c>
       <c r="V27">
-        <v>172.29300000000001</v>
+        <v>0</v>
       </c>
       <c r="W27">
         <v>0</v>
       </c>
       <c r="X27">
-        <v>-326.38600000000002</v>
+        <v>0</v>
       </c>
       <c r="Y27">
         <v>0</v>
@@ -2886,39 +2991,39 @@
         <v>0</v>
       </c>
       <c r="AA27">
-        <v>136.27799999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>39721</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>150.91399999999999</v>
+        <v>25.068000000000001</v>
       </c>
       <c r="D28">
-        <v>2458.4110000000001</v>
+        <v>481.61399999999998</v>
       </c>
       <c r="E28">
-        <v>1001.246</v>
+        <v>136.553</v>
       </c>
       <c r="F28">
-        <v>965.00900000000001</v>
+        <v>211.809</v>
       </c>
       <c r="G28">
-        <v>3500.7350000000001</v>
+        <v>596.39400000000001</v>
       </c>
       <c r="H28">
-        <v>8430.9419999999991</v>
+        <v>1848.171</v>
       </c>
       <c r="I28">
-        <v>724.20100000000002</v>
+        <v>60.488</v>
       </c>
       <c r="J28">
-        <v>2924.7620000000002</v>
+        <v>623.02800000000002</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -2930,37 +3035,37 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>1221.6600000000001</v>
+        <v>163.91300000000001</v>
       </c>
       <c r="O28">
-        <v>4574.2569999999996</v>
+        <v>834.11699999999996</v>
       </c>
       <c r="P28">
-        <v>3021.6219999999998</v>
+        <v>642.45299999999997</v>
       </c>
       <c r="Q28">
-        <v>38.93</v>
+        <v>-6.3730000000000002</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>39721</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>3856.6849999999999</v>
+        <v>1014.054</v>
       </c>
       <c r="U28">
-        <v>303.54399999999998</v>
+        <v>97.688999999999993</v>
       </c>
       <c r="V28">
-        <v>189.804</v>
+        <v>37.941000000000003</v>
       </c>
       <c r="W28">
         <v>0</v>
       </c>
       <c r="X28">
-        <v>-96.69</v>
+        <v>5.915</v>
       </c>
       <c r="Y28">
         <v>0</v>
@@ -2969,39 +3074,39 @@
         <v>0</v>
       </c>
       <c r="AA28">
-        <v>150.91399999999999</v>
+        <v>25.068000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>39813</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>122.381</v>
+        <v>12.964</v>
       </c>
       <c r="D29">
-        <v>2465.8000000000002</v>
+        <v>464.76600000000002</v>
       </c>
       <c r="E29">
-        <v>1021.728</v>
+        <v>147.886</v>
       </c>
       <c r="F29">
-        <v>956.87599999999998</v>
+        <v>196.81800000000001</v>
       </c>
       <c r="G29">
-        <v>3668.373</v>
+        <v>630.11699999999996</v>
       </c>
       <c r="H29">
-        <v>8863.9380000000001</v>
+        <v>1881.8040000000001</v>
       </c>
       <c r="I29">
-        <v>749.85199999999998</v>
+        <v>65.363</v>
       </c>
       <c r="J29">
-        <v>3073.7849999999999</v>
+        <v>635.44000000000005</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -3013,78 +3118,78 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>1302.338</v>
+        <v>167.21299999999999</v>
       </c>
       <c r="O29">
-        <v>4822.9009999999998</v>
+        <v>861.298</v>
       </c>
       <c r="P29">
-        <v>3200.672</v>
+        <v>657.37400000000002</v>
       </c>
       <c r="Q29">
-        <v>-28.466999999999999</v>
+        <v>-18.622</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>39813</v>
       </c>
       <c r="S29">
-        <v>0</v>
+        <v>9600</v>
       </c>
       <c r="T29">
-        <v>4041.0369999999998</v>
+        <v>1020.506</v>
       </c>
       <c r="U29">
-        <v>275.077</v>
+        <v>79.066999999999993</v>
       </c>
       <c r="V29">
-        <v>87.146000000000001</v>
+        <v>27.646999999999998</v>
       </c>
       <c r="W29">
         <v>0</v>
       </c>
       <c r="X29">
-        <v>76.013000000000005</v>
+        <v>12.757</v>
       </c>
       <c r="Y29">
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>-7.1139999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA29">
-        <v>122.381</v>
+        <v>12.964</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>39903</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>124.17100000000001</v>
+        <v>32.304000000000002</v>
       </c>
       <c r="D30">
-        <v>2469.855</v>
+        <v>510.87</v>
       </c>
       <c r="E30">
-        <v>1027.106</v>
+        <v>138.923</v>
       </c>
       <c r="F30">
-        <v>947.64499999999998</v>
+        <v>229.571</v>
       </c>
       <c r="G30">
-        <v>3822.134</v>
+        <v>627.23800000000006</v>
       </c>
       <c r="H30">
-        <v>9366.8719999999994</v>
+        <v>1909.251</v>
       </c>
       <c r="I30">
-        <v>788.61300000000006</v>
+        <v>62.737000000000002</v>
       </c>
       <c r="J30">
-        <v>3339.1120000000001</v>
+        <v>615.03099999999995</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -3093,81 +3198,81 @@
         <v>0</v>
       </c>
       <c r="M30">
-        <v>0</v>
+        <v>-6.1</v>
       </c>
       <c r="N30">
-        <v>1322.7239999999999</v>
+        <v>162.61699999999999</v>
       </c>
       <c r="O30">
-        <v>5160.2190000000001</v>
+        <v>855.50900000000001</v>
       </c>
       <c r="P30">
-        <v>3465.4720000000002</v>
+        <v>638.55899999999997</v>
       </c>
       <c r="Q30">
-        <v>4.6890000000000001</v>
+        <v>13.743</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>39903</v>
       </c>
       <c r="S30">
-        <v>43000</v>
+        <v>0</v>
       </c>
       <c r="T30">
-        <v>4206.6530000000002</v>
+        <v>1053.742</v>
       </c>
       <c r="U30">
-        <v>279.76600000000002</v>
+        <v>92.81</v>
       </c>
       <c r="V30">
-        <v>69.656999999999996</v>
+        <v>39.524999999999999</v>
       </c>
       <c r="W30">
         <v>0</v>
       </c>
       <c r="X30">
-        <v>234.49600000000001</v>
+        <v>-3.198</v>
       </c>
       <c r="Y30">
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>-0.55000000000000004</v>
+        <v>0</v>
       </c>
       <c r="AA30">
-        <v>124.17100000000001</v>
+        <v>32.304000000000002</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>39994</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>152.96</v>
+        <v>28.856999999999999</v>
       </c>
       <c r="D31">
-        <v>2720.7640000000001</v>
+        <v>486.35500000000002</v>
       </c>
       <c r="E31">
-        <v>1211.788</v>
+        <v>138.81299999999999</v>
       </c>
       <c r="F31">
-        <v>1053.971</v>
+        <v>220.24799999999999</v>
       </c>
       <c r="G31">
-        <v>4039.143</v>
+        <v>662.09799999999996</v>
       </c>
       <c r="H31">
-        <v>9636.1779999999999</v>
+        <v>1950.5920000000001</v>
       </c>
       <c r="I31">
-        <v>812.66099999999994</v>
+        <v>58.454000000000001</v>
       </c>
       <c r="J31">
-        <v>3248.6</v>
+        <v>609.82399999999996</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -3176,40 +3281,40 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <v>-325.93</v>
+        <v>0</v>
       </c>
       <c r="N31">
-        <v>1474.788</v>
+        <v>169.85300000000001</v>
       </c>
       <c r="O31">
-        <v>5217.1970000000001</v>
+        <v>857.83900000000006</v>
       </c>
       <c r="P31">
-        <v>3390.877</v>
+        <v>648.86699999999996</v>
       </c>
       <c r="Q31">
-        <v>-34.087000000000003</v>
+        <v>36.658000000000001</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>39994</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>4418.9809999999998</v>
+        <v>1092.7529999999999</v>
       </c>
       <c r="U31">
-        <v>245.679</v>
+        <v>129.46799999999999</v>
       </c>
       <c r="V31">
-        <v>145.16300000000001</v>
+        <v>47.514000000000003</v>
       </c>
       <c r="W31">
         <v>0</v>
       </c>
       <c r="X31">
-        <v>-117.506</v>
+        <v>-0.21199999999999999</v>
       </c>
       <c r="Y31">
         <v>0</v>
@@ -3218,39 +3323,39 @@
         <v>0</v>
       </c>
       <c r="AA31">
-        <v>152.96</v>
+        <v>28.856999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>40086</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>157.00700000000001</v>
+        <v>29.155000000000001</v>
       </c>
       <c r="D32">
-        <v>3030.7510000000002</v>
+        <v>494.81200000000001</v>
       </c>
       <c r="E32">
-        <v>1301.5139999999999</v>
+        <v>127.434</v>
       </c>
       <c r="F32">
-        <v>1161.8789999999999</v>
+        <v>225.10400000000001</v>
       </c>
       <c r="G32">
-        <v>4593.6059999999998</v>
+        <v>714.89599999999996</v>
       </c>
       <c r="H32">
-        <v>11548.630999999999</v>
+        <v>1993.9829999999999</v>
       </c>
       <c r="I32">
-        <v>981.64300000000003</v>
+        <v>54.195</v>
       </c>
       <c r="J32">
-        <v>4313.384</v>
+        <v>606.048</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -3262,37 +3367,37 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>1788.308</v>
+        <v>176.726</v>
       </c>
       <c r="O32">
-        <v>6771.6559999999999</v>
+        <v>862.54700000000003</v>
       </c>
       <c r="P32">
-        <v>4490.7560000000003</v>
+        <v>635.56299999999999</v>
       </c>
       <c r="Q32">
-        <v>99.522999999999996</v>
+        <v>36.536999999999999</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>40086</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>4776.9750000000004</v>
+        <v>1131.4359999999999</v>
       </c>
       <c r="U32">
-        <v>345.202</v>
+        <v>166.005</v>
       </c>
       <c r="V32">
-        <v>183.506</v>
+        <v>48.424999999999997</v>
       </c>
       <c r="W32">
         <v>0</v>
       </c>
       <c r="X32">
-        <v>1171.8489999999999</v>
+        <v>0.23799999999999999</v>
       </c>
       <c r="Y32">
         <v>0</v>
@@ -3301,39 +3406,39 @@
         <v>0</v>
       </c>
       <c r="AA32">
-        <v>157.00700000000001</v>
+        <v>29.155000000000001</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>40178</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>134.102</v>
+        <v>0</v>
       </c>
       <c r="D33">
-        <v>3122.3780000000002</v>
+        <v>0</v>
       </c>
       <c r="E33">
-        <v>1255.876</v>
+        <v>152.44300000000001</v>
       </c>
       <c r="F33">
-        <v>1197.1980000000001</v>
+        <v>0</v>
       </c>
       <c r="G33">
-        <v>4593.0600000000004</v>
+        <v>702.86800000000005</v>
       </c>
       <c r="H33">
-        <v>11585.335999999999</v>
+        <v>2020.1210000000001</v>
       </c>
       <c r="I33">
-        <v>941.74699999999996</v>
+        <v>51.3</v>
       </c>
       <c r="J33">
-        <v>4299.3490000000002</v>
+        <v>598.18200000000002</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -3345,78 +3450,78 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>1735.68</v>
+        <v>168.48099999999999</v>
       </c>
       <c r="O33">
-        <v>6687.92</v>
+        <v>840.68700000000001</v>
       </c>
       <c r="P33">
-        <v>4417.7139999999999</v>
+        <v>613.245</v>
       </c>
       <c r="Q33">
-        <v>-3.8559999999999999</v>
+        <v>0</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>40178</v>
       </c>
       <c r="S33">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="T33">
-        <v>4897.4160000000002</v>
+        <v>1179.434</v>
       </c>
       <c r="U33">
-        <v>341.346</v>
+        <v>108.90600000000001</v>
       </c>
       <c r="V33">
-        <v>192.49799999999999</v>
+        <v>0</v>
       </c>
       <c r="W33">
         <v>0</v>
       </c>
       <c r="X33">
-        <v>-75.028999999999996</v>
+        <v>0</v>
       </c>
       <c r="Y33">
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>-11.066000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA33">
-        <v>134.102</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>40268</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>53.936</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>603.51599999999996</v>
       </c>
       <c r="E34">
-        <v>1154.0830000000001</v>
+        <v>156.33699999999999</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>283.29000000000002</v>
       </c>
       <c r="G34">
-        <v>4520.9489999999996</v>
+        <v>782.77</v>
       </c>
       <c r="H34">
-        <v>11393.402</v>
+        <v>2109.297</v>
       </c>
       <c r="I34">
-        <v>942.39800000000002</v>
+        <v>58.05</v>
       </c>
       <c r="J34">
-        <v>4189.5780000000004</v>
+        <v>581.21100000000001</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -3425,81 +3530,81 @@
         <v>0</v>
       </c>
       <c r="M34">
-        <v>0</v>
+        <v>-7.827</v>
       </c>
       <c r="N34">
-        <v>1690.348</v>
+        <v>204.363</v>
       </c>
       <c r="O34">
-        <v>6554.65</v>
+        <v>863.98800000000006</v>
       </c>
       <c r="P34">
-        <v>4351.4970000000003</v>
+        <v>605.01199999999994</v>
       </c>
       <c r="Q34">
-        <v>0</v>
+        <v>84.63</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>40268</v>
       </c>
       <c r="S34">
-        <v>51000</v>
+        <v>0</v>
       </c>
       <c r="T34">
-        <v>4838.7520000000004</v>
+        <v>1245.309</v>
       </c>
       <c r="U34">
-        <v>331.76100000000002</v>
+        <v>193.536</v>
       </c>
       <c r="V34">
-        <v>0</v>
+        <v>88.064999999999998</v>
       </c>
       <c r="W34">
         <v>0</v>
       </c>
       <c r="X34">
-        <v>0</v>
+        <v>-1.1419999999999999</v>
       </c>
       <c r="Y34">
-        <v>39.966000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z34">
         <v>0</v>
       </c>
       <c r="AA34">
-        <v>0</v>
+        <v>53.936</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>40359</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>98.048000000000002</v>
+        <v>37.905999999999999</v>
       </c>
       <c r="D35">
-        <v>3100.3029999999999</v>
+        <v>584.68100000000004</v>
       </c>
       <c r="E35">
-        <v>1353.491</v>
+        <v>155.339</v>
       </c>
       <c r="F35">
-        <v>1208.2639999999999</v>
+        <v>261.26600000000002</v>
       </c>
       <c r="G35">
-        <v>4644.7700000000004</v>
+        <v>800.53300000000002</v>
       </c>
       <c r="H35">
-        <v>12665.91</v>
+        <v>2130.7420000000002</v>
       </c>
       <c r="I35">
-        <v>952.68799999999999</v>
+        <v>52.405000000000001</v>
       </c>
       <c r="J35">
-        <v>4090.7060000000001</v>
+        <v>567.32399999999996</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -3508,81 +3613,81 @@
         <v>0</v>
       </c>
       <c r="M35">
-        <v>-352.06200000000001</v>
+        <v>0</v>
       </c>
       <c r="N35">
-        <v>1971.4880000000001</v>
+        <v>195.65</v>
       </c>
       <c r="O35">
-        <v>7809.1360000000004</v>
+        <v>840.84400000000005</v>
       </c>
       <c r="P35">
-        <v>5584.6210000000001</v>
+        <v>600.00400000000002</v>
       </c>
       <c r="Q35">
-        <v>-15.803000000000001</v>
+        <v>-3.0590000000000002</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>40359</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>4856.7740000000003</v>
+        <v>1289.8979999999999</v>
       </c>
       <c r="U35">
-        <v>316.06599999999997</v>
+        <v>190.477</v>
       </c>
       <c r="V35">
-        <v>177.22499999999999</v>
+        <v>13.125999999999999</v>
       </c>
       <c r="W35">
         <v>0</v>
       </c>
       <c r="X35">
-        <v>-132.73099999999999</v>
+        <v>3.65</v>
       </c>
       <c r="Y35">
-        <v>1141.316</v>
+        <v>0</v>
       </c>
       <c r="Z35">
         <v>0</v>
       </c>
       <c r="AA35">
-        <v>98.048000000000002</v>
+        <v>37.905999999999999</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>40451</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>150.56100000000001</v>
+        <v>35.901000000000003</v>
       </c>
       <c r="D36">
-        <v>3248.1729999999998</v>
+        <v>607.62099999999998</v>
       </c>
       <c r="E36">
-        <v>1285.8019999999999</v>
+        <v>167.18100000000001</v>
       </c>
       <c r="F36">
-        <v>1247.1869999999999</v>
+        <v>261.42399999999998</v>
       </c>
       <c r="G36">
-        <v>4631.8490000000002</v>
+        <v>821.5</v>
       </c>
       <c r="H36">
-        <v>12704.236000000001</v>
+        <v>2205.4490000000001</v>
       </c>
       <c r="I36">
-        <v>1031.952</v>
+        <v>70.412999999999997</v>
       </c>
       <c r="J36">
-        <v>3921.7669999999998</v>
+        <v>559.88900000000001</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -3594,78 +3699,78 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>2106.9459999999999</v>
+        <v>225.292</v>
       </c>
       <c r="O36">
-        <v>7794.4880000000003</v>
+        <v>868.53800000000001</v>
       </c>
       <c r="P36">
-        <v>5427.5</v>
+        <v>603.06899999999996</v>
       </c>
       <c r="Q36">
-        <v>65.346999999999994</v>
+        <v>-21.798999999999999</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>40451</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>4909.7479999999996</v>
+        <v>1336.9110000000001</v>
       </c>
       <c r="U36">
-        <v>375.96699999999998</v>
+        <v>168.678</v>
       </c>
       <c r="V36">
-        <v>461.17899999999997</v>
+        <v>43.372</v>
       </c>
       <c r="W36">
         <v>0</v>
       </c>
       <c r="X36">
-        <v>-339.25700000000001</v>
+        <v>6.7679999999999998</v>
       </c>
       <c r="Y36">
-        <v>1153.4090000000001</v>
+        <v>0</v>
       </c>
       <c r="Z36">
         <v>0</v>
       </c>
       <c r="AA36">
-        <v>150.56100000000001</v>
+        <v>35.901000000000003</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>40543</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>152.26300000000001</v>
+        <v>41.328000000000003</v>
       </c>
       <c r="D37">
-        <v>3147.7730000000001</v>
+        <v>674.06299999999999</v>
       </c>
       <c r="E37">
-        <v>1223.1969999999999</v>
+        <v>191.08500000000001</v>
       </c>
       <c r="F37">
-        <v>1217.4590000000001</v>
+        <v>287.5</v>
       </c>
       <c r="G37">
-        <v>4483.8580000000002</v>
+        <v>836.87599999999998</v>
       </c>
       <c r="H37">
-        <v>12411.69</v>
+        <v>2299.509</v>
       </c>
       <c r="I37">
-        <v>997.87400000000002</v>
+        <v>76.436999999999998</v>
       </c>
       <c r="J37">
-        <v>3722.904</v>
+        <v>548.06600000000003</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -3677,78 +3782,78 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>2054.0509999999999</v>
+        <v>225.321</v>
       </c>
       <c r="O37">
-        <v>7538.99</v>
+        <v>885.34799999999996</v>
       </c>
       <c r="P37">
-        <v>5234.8469999999998</v>
+        <v>602.37</v>
       </c>
       <c r="Q37">
-        <v>56.142000000000003</v>
+        <v>-72.989000000000004</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>40543</v>
       </c>
       <c r="S37">
-        <v>0</v>
+        <v>12000</v>
       </c>
       <c r="T37">
-        <v>4872.7</v>
+        <v>1414.1610000000001</v>
       </c>
       <c r="U37">
-        <v>433.39100000000002</v>
+        <v>95.688999999999993</v>
       </c>
       <c r="V37">
-        <v>326.767</v>
+        <v>14.62</v>
       </c>
       <c r="W37">
         <v>0</v>
       </c>
       <c r="X37">
-        <v>-217.70599999999999</v>
+        <v>9.6859999999999999</v>
       </c>
       <c r="Y37">
-        <v>1158.175</v>
+        <v>0</v>
       </c>
       <c r="Z37">
-        <v>-6.8940000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA37">
-        <v>152.26300000000001</v>
+        <v>41.328000000000003</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>40633</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>140.38800000000001</v>
+        <v>58.182000000000002</v>
       </c>
       <c r="D38">
-        <v>3009.86</v>
+        <v>786.64800000000002</v>
       </c>
       <c r="E38">
-        <v>1131.1320000000001</v>
+        <v>222.58099999999999</v>
       </c>
       <c r="F38">
-        <v>1199.538</v>
+        <v>343.64600000000002</v>
       </c>
       <c r="G38">
-        <v>4687.8190000000004</v>
+        <v>852.11699999999996</v>
       </c>
       <c r="H38">
-        <v>12779.956</v>
+        <v>2355.3789999999999</v>
       </c>
       <c r="I38">
-        <v>942.79499999999996</v>
+        <v>75.376999999999995</v>
       </c>
       <c r="J38">
-        <v>3707.31</v>
+        <v>544.45100000000002</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -3757,81 +3862,81 @@
         <v>0</v>
       </c>
       <c r="M38">
-        <v>0</v>
+        <v>-635.41700000000003</v>
       </c>
       <c r="N38">
-        <v>2178.5120000000002</v>
+        <v>208.27199999999999</v>
       </c>
       <c r="O38">
-        <v>7707.299</v>
+        <v>870.00900000000001</v>
       </c>
       <c r="P38">
-        <v>5425.1989999999996</v>
+        <v>559.46799999999996</v>
       </c>
       <c r="Q38">
-        <v>91.921000000000006</v>
+        <v>-31.172000000000001</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>40633</v>
       </c>
       <c r="S38">
-        <v>51000</v>
+        <v>0</v>
       </c>
       <c r="T38">
-        <v>5072.6570000000002</v>
+        <v>1485.37</v>
       </c>
       <c r="U38">
-        <v>523.02</v>
+        <v>64.516999999999996</v>
       </c>
       <c r="V38">
-        <v>98.861999999999995</v>
+        <v>77.314999999999998</v>
       </c>
       <c r="W38">
         <v>0</v>
       </c>
       <c r="X38">
-        <v>89.025000000000006</v>
+        <v>-46.987000000000002</v>
       </c>
       <c r="Y38">
-        <v>1169.0250000000001</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>-0.7</v>
+        <v>0</v>
       </c>
       <c r="AA38">
-        <v>140.38800000000001</v>
+        <v>58.182000000000002</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>40724</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>145.136</v>
+        <v>46.706000000000003</v>
       </c>
       <c r="D39">
-        <v>3000.9349999999999</v>
+        <v>759.68399999999997</v>
       </c>
       <c r="E39">
-        <v>1168.626</v>
+        <v>236.62799999999999</v>
       </c>
       <c r="F39">
-        <v>1213.8720000000001</v>
+        <v>322.23599999999999</v>
       </c>
       <c r="G39">
-        <v>4442.6639999999998</v>
+        <v>890.37599999999998</v>
       </c>
       <c r="H39">
-        <v>12354.07</v>
+        <v>2417.7139999999999</v>
       </c>
       <c r="I39">
-        <v>893.80700000000002</v>
+        <v>77.950999999999993</v>
       </c>
       <c r="J39">
-        <v>3629.1509999999998</v>
+        <v>571.74099999999999</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -3840,81 +3945,81 @@
         <v>0</v>
       </c>
       <c r="M39">
-        <v>-801.43</v>
+        <v>0</v>
       </c>
       <c r="N39">
-        <v>1938.9680000000001</v>
+        <v>193.46899999999999</v>
       </c>
       <c r="O39">
-        <v>7342.674</v>
+        <v>882.01199999999994</v>
       </c>
       <c r="P39">
-        <v>5108.6530000000002</v>
+        <v>587.26099999999997</v>
       </c>
       <c r="Q39">
-        <v>-196.79400000000001</v>
+        <v>-22.260999999999999</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>40724</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>5011.3959999999997</v>
+        <v>1535.702</v>
       </c>
       <c r="U39">
-        <v>332.78399999999999</v>
+        <v>42.256</v>
       </c>
       <c r="V39">
-        <v>194.56299999999999</v>
+        <v>23.765000000000001</v>
       </c>
       <c r="W39">
         <v>0</v>
       </c>
       <c r="X39">
-        <v>-334.73899999999998</v>
+        <v>30.454000000000001</v>
       </c>
       <c r="Y39">
-        <v>1149.3219999999999</v>
+        <v>0</v>
       </c>
       <c r="Z39">
         <v>0</v>
       </c>
       <c r="AA39">
-        <v>145.136</v>
+        <v>46.706000000000003</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>40816</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>118.792</v>
+        <v>49.231000000000002</v>
       </c>
       <c r="D40">
-        <v>2626.3229999999999</v>
+        <v>783.89800000000002</v>
       </c>
       <c r="E40">
-        <v>1125.816</v>
+        <v>231.14699999999999</v>
       </c>
       <c r="F40">
-        <v>1016.669</v>
+        <v>334.322</v>
       </c>
       <c r="G40">
-        <v>4106.973</v>
+        <v>936.59</v>
       </c>
       <c r="H40">
-        <v>12035.299000000001</v>
+        <v>2538.0120000000002</v>
       </c>
       <c r="I40">
-        <v>756.846</v>
+        <v>84.495999999999995</v>
       </c>
       <c r="J40">
-        <v>3114.2530000000002</v>
+        <v>621.66800000000001</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -3926,78 +4031,78 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>1949.768</v>
+        <v>227.52600000000001</v>
       </c>
       <c r="O40">
-        <v>6863.2809999999999</v>
+        <v>958.28899999999999</v>
       </c>
       <c r="P40">
-        <v>4606.8959999999997</v>
+        <v>640.58299999999997</v>
       </c>
       <c r="Q40">
-        <v>138.363</v>
+        <v>2.8559999999999999</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>40816</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>5172.018</v>
+        <v>1579.723</v>
       </c>
       <c r="U40">
-        <v>476.42599999999999</v>
+        <v>45.112000000000002</v>
       </c>
       <c r="V40">
-        <v>718.48900000000003</v>
+        <v>58.101999999999997</v>
       </c>
       <c r="W40">
         <v>0</v>
       </c>
       <c r="X40">
-        <v>-555.41499999999996</v>
+        <v>47.255000000000003</v>
       </c>
       <c r="Y40">
-        <v>1155.702</v>
+        <v>0</v>
       </c>
       <c r="Z40">
         <v>0</v>
       </c>
       <c r="AA40">
-        <v>118.792</v>
+        <v>49.231000000000002</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>40908</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>193.483</v>
+        <v>56.145000000000003</v>
       </c>
       <c r="D41">
-        <v>3047.6840000000002</v>
+        <v>939.63199999999995</v>
       </c>
       <c r="E41">
-        <v>1174.5039999999999</v>
+        <v>281.76400000000001</v>
       </c>
       <c r="F41">
-        <v>1199.375</v>
+        <v>391.78899999999999</v>
       </c>
       <c r="G41">
-        <v>4102.5079999999998</v>
+        <v>1149.7349999999999</v>
       </c>
       <c r="H41">
-        <v>12161.212</v>
+        <v>3199.7040000000002</v>
       </c>
       <c r="I41">
-        <v>847.73299999999995</v>
+        <v>210.875</v>
       </c>
       <c r="J41">
-        <v>2961.0709999999999</v>
+        <v>937.15200000000004</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -4009,128 +4114,3033 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>1926.4949999999999</v>
+        <v>397.69299999999998</v>
       </c>
       <c r="O41">
-        <v>6721.549</v>
+        <v>1555.6189999999999</v>
       </c>
       <c r="P41">
-        <v>4492.3339999999998</v>
+        <v>966.67600000000004</v>
       </c>
       <c r="Q41">
-        <v>-55.043999999999997</v>
+        <v>3.1349999999999998</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>40908</v>
       </c>
       <c r="S41">
-        <v>0</v>
+        <v>17900</v>
       </c>
       <c r="T41">
-        <v>5439.6629999999996</v>
+        <v>1644.085</v>
       </c>
       <c r="U41">
-        <v>421.38200000000001</v>
+        <v>48.247</v>
       </c>
       <c r="V41">
-        <v>221.589</v>
+        <v>52.59</v>
       </c>
       <c r="W41">
         <v>0</v>
       </c>
       <c r="X41">
-        <v>-260.62900000000002</v>
+        <v>280.68900000000002</v>
       </c>
       <c r="Y41">
-        <v>1170.683</v>
+        <v>0</v>
       </c>
       <c r="Z41">
-        <v>-6.9169999999999998</v>
+        <v>0</v>
       </c>
       <c r="AA41">
-        <v>193.483</v>
+        <v>56.145000000000003</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>40999</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>80.991</v>
+      </c>
+      <c r="D42">
+        <v>1031.777</v>
+      </c>
+      <c r="E42">
+        <v>310.55200000000002</v>
+      </c>
+      <c r="F42">
+        <v>439.08300000000003</v>
+      </c>
+      <c r="G42">
+        <v>1174.278</v>
+      </c>
+      <c r="H42">
+        <v>3260.0010000000002</v>
+      </c>
+      <c r="I42">
+        <v>212.53800000000001</v>
+      </c>
+      <c r="J42">
+        <v>866.36800000000005</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>-413.976</v>
+      </c>
+      <c r="N42">
+        <v>457.07400000000001</v>
+      </c>
+      <c r="O42">
+        <v>1514.9159999999999</v>
+      </c>
+      <c r="P42">
+        <v>906.86599999999999</v>
+      </c>
+      <c r="Q42">
+        <v>6.9219999999999997</v>
+      </c>
+      <c r="R42">
+        <v>40999</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>1745.085</v>
+      </c>
+      <c r="U42">
+        <v>55.168999999999997</v>
+      </c>
+      <c r="V42">
+        <v>110.155</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>-57.747</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+      <c r="AA42">
+        <v>80.991</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>41090</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>63.997999999999998</v>
+      </c>
+      <c r="D43">
+        <v>1006.5309999999999</v>
+      </c>
+      <c r="E43">
+        <v>309.45400000000001</v>
+      </c>
+      <c r="F43">
+        <v>413.53100000000001</v>
+      </c>
+      <c r="G43">
+        <v>1253.0070000000001</v>
+      </c>
+      <c r="H43">
+        <v>3425.4090000000001</v>
+      </c>
+      <c r="I43">
+        <v>224.27600000000001</v>
+      </c>
+      <c r="J43">
+        <v>969.33500000000004</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>445.322</v>
+      </c>
+      <c r="O43">
+        <v>1611.681</v>
+      </c>
+      <c r="P43">
+        <v>1015.7140000000001</v>
+      </c>
+      <c r="Q43">
+        <v>4.1840000000000002</v>
+      </c>
+      <c r="R43">
+        <v>41090</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>1813.7280000000001</v>
+      </c>
+      <c r="U43">
+        <v>59.353000000000002</v>
+      </c>
+      <c r="V43">
+        <v>10.856999999999999</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>109.208</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+      <c r="AA43">
+        <v>63.997999999999998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>41182</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>54.048000000000002</v>
+      </c>
+      <c r="D44">
+        <v>1016.707</v>
+      </c>
+      <c r="E44">
+        <v>301.89100000000002</v>
+      </c>
+      <c r="F44">
+        <v>409.20499999999998</v>
+      </c>
+      <c r="G44">
+        <v>1296.3489999999999</v>
+      </c>
+      <c r="H44">
+        <v>3502.5749999999998</v>
+      </c>
+      <c r="I44">
+        <v>219.09800000000001</v>
+      </c>
+      <c r="J44">
+        <v>947</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>464.51900000000001</v>
+      </c>
+      <c r="O44">
+        <v>1613.934</v>
+      </c>
+      <c r="P44">
+        <v>999.10299999999995</v>
+      </c>
+      <c r="Q44">
+        <v>9.8610000000000007</v>
+      </c>
+      <c r="R44">
+        <v>41182</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>1888.6410000000001</v>
+      </c>
+      <c r="U44">
+        <v>69.213999999999999</v>
+      </c>
+      <c r="V44">
+        <v>61.06</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>-20.181000000000001</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+      <c r="AA44">
+        <v>54.048000000000002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>41274</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>62.188000000000002</v>
+      </c>
+      <c r="D45">
+        <v>1067.915</v>
+      </c>
+      <c r="E45">
+        <v>311.80799999999999</v>
+      </c>
+      <c r="F45">
+        <v>444.42099999999999</v>
+      </c>
+      <c r="G45">
+        <v>1384.3510000000001</v>
+      </c>
+      <c r="H45">
+        <v>3723.4560000000001</v>
+      </c>
+      <c r="I45">
+        <v>219.33500000000001</v>
+      </c>
+      <c r="J45">
+        <v>1061.7</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>487.94400000000002</v>
+      </c>
+      <c r="O45">
+        <v>1759.3620000000001</v>
+      </c>
+      <c r="P45">
+        <v>1134.1210000000001</v>
+      </c>
+      <c r="Q45">
+        <v>-9.4440000000000008</v>
+      </c>
+      <c r="R45">
+        <v>41274</v>
+      </c>
+      <c r="S45">
+        <v>20300</v>
+      </c>
+      <c r="T45">
+        <v>1964.0940000000001</v>
+      </c>
+      <c r="U45">
+        <v>59.77</v>
+      </c>
+      <c r="V45">
+        <v>24.117999999999999</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>125.792</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+      <c r="AA45">
+        <v>62.188000000000002</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>41364</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>84.591999999999999</v>
+      </c>
+      <c r="D46">
+        <v>1195.9970000000001</v>
+      </c>
+      <c r="E46">
+        <v>357.58</v>
+      </c>
+      <c r="F46">
+        <v>501.94900000000001</v>
+      </c>
+      <c r="G46">
+        <v>1399.5619999999999</v>
+      </c>
+      <c r="H46">
+        <v>3722.6990000000001</v>
+      </c>
+      <c r="I46">
+        <v>202.084</v>
+      </c>
+      <c r="J46">
+        <v>1001.779</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>-125.815</v>
+      </c>
+      <c r="N46">
+        <v>504.73899999999998</v>
+      </c>
+      <c r="O46">
+        <v>1681.47</v>
+      </c>
+      <c r="P46">
+        <v>1081.798</v>
+      </c>
+      <c r="Q46">
+        <v>3.2269999999999999</v>
+      </c>
+      <c r="R46">
+        <v>41364</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>2041.229</v>
+      </c>
+      <c r="U46">
+        <v>62.997</v>
+      </c>
+      <c r="V46">
+        <v>106.43300000000001</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>-67.912999999999997</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+      <c r="AA46">
+        <v>84.591999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>41455</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>75.721999999999994</v>
+      </c>
+      <c r="D47">
+        <v>1251.748</v>
+      </c>
+      <c r="E47">
+        <v>413.21499999999997</v>
+      </c>
+      <c r="F47">
+        <v>509.87299999999999</v>
+      </c>
+      <c r="G47">
+        <v>1658.49</v>
+      </c>
+      <c r="H47">
+        <v>4218.3149999999996</v>
+      </c>
+      <c r="I47">
+        <v>263.565</v>
+      </c>
+      <c r="J47">
+        <v>1321.3119999999999</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>559.11</v>
+      </c>
+      <c r="O47">
+        <v>2080.6619999999998</v>
+      </c>
+      <c r="P47">
+        <v>1386.2739999999999</v>
+      </c>
+      <c r="Q47">
+        <v>98.593000000000004</v>
+      </c>
+      <c r="R47">
+        <v>41455</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>2137.6529999999998</v>
+      </c>
+      <c r="U47">
+        <v>161.59</v>
+      </c>
+      <c r="V47">
+        <v>103.057</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>309.065</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+      <c r="AA47">
+        <v>75.721999999999994</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41547</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>73.444999999999993</v>
+      </c>
+      <c r="D48">
+        <v>1298.0940000000001</v>
+      </c>
+      <c r="E48">
+        <v>438.8</v>
+      </c>
+      <c r="F48">
+        <v>517.90700000000004</v>
+      </c>
+      <c r="G48">
+        <v>1675.6510000000001</v>
+      </c>
+      <c r="H48">
+        <v>4361.0590000000002</v>
+      </c>
+      <c r="I48">
+        <v>284.89999999999998</v>
+      </c>
+      <c r="J48">
+        <v>1260.5</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>642.51300000000003</v>
+      </c>
+      <c r="O48">
+        <v>2106.953</v>
+      </c>
+      <c r="P48">
+        <v>1321.623</v>
+      </c>
+      <c r="Q48">
+        <v>-54.253</v>
+      </c>
+      <c r="R48">
+        <v>41547</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>2254.1060000000002</v>
+      </c>
+      <c r="U48">
+        <v>107.337</v>
+      </c>
+      <c r="V48">
+        <v>131.43899999999999</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>-71.832999999999998</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>-9.1359999999999992</v>
+      </c>
+      <c r="AA48">
+        <v>73.444999999999993</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41639</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>77.864000000000004</v>
+      </c>
+      <c r="D49">
+        <v>1316.6890000000001</v>
+      </c>
+      <c r="E49">
+        <v>458.09399999999999</v>
+      </c>
+      <c r="F49">
+        <v>545.673</v>
+      </c>
+      <c r="G49">
+        <v>1799.817</v>
+      </c>
+      <c r="H49">
+        <v>4518.7740000000003</v>
+      </c>
+      <c r="I49">
+        <v>349.06900000000002</v>
+      </c>
+      <c r="J49">
+        <v>1272.7159999999999</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>677.95299999999997</v>
+      </c>
+      <c r="O49">
+        <v>2168.029</v>
+      </c>
+      <c r="P49">
+        <v>1314.251</v>
+      </c>
+      <c r="Q49">
+        <v>43.151000000000003</v>
+      </c>
+      <c r="R49">
+        <v>41639</v>
+      </c>
+      <c r="S49">
+        <v>23800</v>
+      </c>
+      <c r="T49">
+        <v>2350.7449999999999</v>
+      </c>
+      <c r="U49">
+        <v>150.488</v>
+      </c>
+      <c r="V49">
+        <v>87.126999999999995</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>-3.3780000000000001</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="AA49">
+        <v>77.864000000000004</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>104.65300000000001</v>
+      </c>
+      <c r="D50">
+        <v>1625.777</v>
+      </c>
+      <c r="E50">
+        <v>577.21199999999999</v>
+      </c>
+      <c r="F50">
+        <v>651.88400000000001</v>
+      </c>
+      <c r="G50">
+        <v>2093.4810000000002</v>
+      </c>
+      <c r="H50">
+        <v>5209.8280000000004</v>
+      </c>
+      <c r="I50">
+        <v>384.10199999999998</v>
+      </c>
+      <c r="J50">
+        <v>1703.3869999999999</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>-398.952</v>
+      </c>
+      <c r="N50">
+        <v>775.91499999999996</v>
+      </c>
+      <c r="O50">
+        <v>2738.8009999999999</v>
+      </c>
+      <c r="P50">
+        <v>1738.4929999999999</v>
+      </c>
+      <c r="Q50">
+        <v>-37.241999999999997</v>
+      </c>
+      <c r="R50">
+        <v>41729</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <v>2471.027</v>
+      </c>
+      <c r="U50">
+        <v>113.246</v>
+      </c>
+      <c r="V50">
+        <v>97.009</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>386.21300000000002</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+      <c r="AA50">
+        <v>104.65300000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>104.88200000000001</v>
+      </c>
+      <c r="D51">
+        <v>1709.1320000000001</v>
+      </c>
+      <c r="E51">
+        <v>624.29999999999995</v>
+      </c>
+      <c r="F51">
+        <v>671.05899999999997</v>
+      </c>
+      <c r="G51">
+        <v>2240.7260000000001</v>
+      </c>
+      <c r="H51">
+        <v>5498.8450000000003</v>
+      </c>
+      <c r="I51">
+        <v>392.65899999999999</v>
+      </c>
+      <c r="J51">
+        <v>1886.769</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>750.20799999999997</v>
+      </c>
+      <c r="O51">
+        <v>2896.3290000000002</v>
+      </c>
+      <c r="P51">
+        <v>1958.2560000000001</v>
+      </c>
+      <c r="Q51">
+        <v>-3.6819999999999999</v>
+      </c>
+      <c r="R51">
+        <v>41820</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>2602.5160000000001</v>
+      </c>
+      <c r="U51">
+        <v>109.56399999999999</v>
+      </c>
+      <c r="V51">
+        <v>55.195</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>120.258</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="AA51">
+        <v>104.88200000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41912</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>91.515000000000001</v>
+      </c>
+      <c r="D52">
+        <v>1721.0239999999999</v>
+      </c>
+      <c r="E52">
+        <v>609.43399999999997</v>
+      </c>
+      <c r="F52">
+        <v>664.41099999999994</v>
+      </c>
+      <c r="G52">
+        <v>2345.538</v>
+      </c>
+      <c r="H52">
+        <v>5534.5780000000004</v>
+      </c>
+      <c r="I52">
+        <v>403.58699999999999</v>
+      </c>
+      <c r="J52">
+        <v>1830.6890000000001</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>771.38800000000003</v>
+      </c>
+      <c r="O52">
+        <v>2866.884</v>
+      </c>
+      <c r="P52">
+        <v>1903.597</v>
+      </c>
+      <c r="Q52">
+        <v>135.08199999999999</v>
+      </c>
+      <c r="R52">
+        <v>41912</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>2667.694</v>
+      </c>
+      <c r="U52">
+        <v>244.64599999999999</v>
+      </c>
+      <c r="V52">
+        <v>170.43799999999999</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>16.939</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AA52">
+        <v>91.515000000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>80.468999999999994</v>
+      </c>
+      <c r="D53">
+        <v>1684.1310000000001</v>
+      </c>
+      <c r="E53">
+        <v>601.42200000000003</v>
+      </c>
+      <c r="F53">
+        <v>664.55899999999997</v>
+      </c>
+      <c r="G53">
+        <v>2235.6729999999998</v>
+      </c>
+      <c r="H53">
+        <v>5475.7389999999996</v>
+      </c>
+      <c r="I53">
+        <v>400.202</v>
+      </c>
+      <c r="J53">
+        <v>1786.7370000000001</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>744.50400000000002</v>
+      </c>
+      <c r="O53">
+        <v>2755.0819999999999</v>
+      </c>
+      <c r="P53">
+        <v>1851.366</v>
+      </c>
+      <c r="Q53">
+        <v>-130.041</v>
+      </c>
+      <c r="R53">
+        <v>42004</v>
+      </c>
+      <c r="S53">
+        <v>29500</v>
+      </c>
+      <c r="T53">
+        <v>2720.6570000000002</v>
+      </c>
+      <c r="U53">
+        <v>114.605</v>
+      </c>
+      <c r="V53">
+        <v>48.255000000000003</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <v>-4.407</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="AA53">
+        <v>80.468999999999994</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>42094</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>107.095</v>
+      </c>
+      <c r="D54">
+        <v>1773.912</v>
+      </c>
+      <c r="E54">
+        <v>645.03700000000003</v>
+      </c>
+      <c r="F54">
+        <v>699.47900000000004</v>
+      </c>
+      <c r="G54">
+        <v>2337.1790000000001</v>
+      </c>
+      <c r="H54">
+        <v>5522.4660000000003</v>
+      </c>
+      <c r="I54">
+        <v>397.62299999999999</v>
+      </c>
+      <c r="J54">
+        <v>1675.0409999999999</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>-167.274</v>
+      </c>
+      <c r="N54">
+        <v>772.31399999999996</v>
+      </c>
+      <c r="O54">
+        <v>2742.5590000000002</v>
+      </c>
+      <c r="P54">
+        <v>1739.3579999999999</v>
+      </c>
+      <c r="Q54">
+        <v>60.887</v>
+      </c>
+      <c r="R54">
+        <v>42094</v>
+      </c>
+      <c r="S54">
+        <v>0</v>
+      </c>
+      <c r="T54">
+        <v>2779.9070000000002</v>
+      </c>
+      <c r="U54">
+        <v>175.49199999999999</v>
+      </c>
+      <c r="V54">
+        <v>180.14500000000001</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <v>-80.412000000000006</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+      <c r="AA54">
+        <v>107.095</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>119.72199999999999</v>
+      </c>
+      <c r="D55">
+        <v>1838.07</v>
+      </c>
+      <c r="E55">
+        <v>651.27099999999996</v>
+      </c>
+      <c r="F55">
+        <v>723.94399999999996</v>
+      </c>
+      <c r="G55">
+        <v>2372.6210000000001</v>
+      </c>
+      <c r="H55">
+        <v>5634.5420000000004</v>
+      </c>
+      <c r="I55">
+        <v>392.95100000000002</v>
+      </c>
+      <c r="J55">
+        <v>1654.3150000000001</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>726.36500000000001</v>
+      </c>
+      <c r="O55">
+        <v>2680.4490000000001</v>
+      </c>
+      <c r="P55">
+        <v>1694.819</v>
+      </c>
+      <c r="Q55">
+        <v>-32.069000000000003</v>
+      </c>
+      <c r="R55">
+        <v>42185</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>2954.0929999999998</v>
+      </c>
+      <c r="U55">
+        <v>143.423</v>
+      </c>
+      <c r="V55">
+        <v>102.554</v>
+      </c>
+      <c r="W55">
+        <v>0</v>
+      </c>
+      <c r="X55">
+        <v>-64.509</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+      <c r="AA55">
+        <v>119.72199999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>101.346</v>
+      </c>
+      <c r="D56">
+        <v>1831.732</v>
+      </c>
+      <c r="E56">
+        <v>626.78</v>
+      </c>
+      <c r="F56">
+        <v>712.779</v>
+      </c>
+      <c r="G56">
+        <v>2387.143</v>
+      </c>
+      <c r="H56">
+        <v>5704.0320000000002</v>
+      </c>
+      <c r="I56">
+        <v>416.34100000000001</v>
+      </c>
+      <c r="J56">
+        <v>1572.2280000000001</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>797.69799999999998</v>
+      </c>
+      <c r="O56">
+        <v>2667.319</v>
+      </c>
+      <c r="P56">
+        <v>1609.604</v>
+      </c>
+      <c r="Q56">
+        <v>-6.3369999999999997</v>
+      </c>
+      <c r="R56">
+        <v>42277</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>3036.7130000000002</v>
+      </c>
+      <c r="U56">
+        <v>137.08600000000001</v>
+      </c>
+      <c r="V56">
+        <v>222.29599999999999</v>
+      </c>
+      <c r="W56">
+        <v>0</v>
+      </c>
+      <c r="X56">
+        <v>-81.695999999999998</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+      <c r="AA56">
+        <v>101.346</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>95.06</v>
+      </c>
+      <c r="D57">
+        <v>1748.9190000000001</v>
+      </c>
+      <c r="E57">
+        <v>590.16</v>
+      </c>
+      <c r="F57">
+        <v>697.327</v>
+      </c>
+      <c r="G57">
+        <v>2340.712</v>
+      </c>
+      <c r="H57">
+        <v>5647.8370000000004</v>
+      </c>
+      <c r="I57">
+        <v>415.58800000000002</v>
+      </c>
+      <c r="J57">
+        <v>1528.6679999999999</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>751.97</v>
+      </c>
+      <c r="O57">
+        <v>2533.1550000000002</v>
+      </c>
+      <c r="P57">
+        <v>1586.049</v>
+      </c>
+      <c r="Q57">
+        <v>-49.689</v>
+      </c>
+      <c r="R57">
+        <v>42369</v>
+      </c>
+      <c r="S57">
+        <v>31100</v>
+      </c>
+      <c r="T57">
+        <v>3114.6819999999998</v>
+      </c>
+      <c r="U57">
+        <v>87.397000000000006</v>
+      </c>
+      <c r="V57">
+        <v>39.286999999999999</v>
+      </c>
+      <c r="W57">
+        <v>0</v>
+      </c>
+      <c r="X57">
+        <v>-11.92</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>-9.6820000000000004</v>
+      </c>
+      <c r="AA57">
+        <v>95.06</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>112.17100000000001</v>
+      </c>
+      <c r="D58">
+        <v>1921.4760000000001</v>
+      </c>
+      <c r="E58">
+        <v>882.58199999999999</v>
+      </c>
+      <c r="F58">
+        <v>760.43700000000001</v>
+      </c>
+      <c r="G58">
+        <v>2993.8870000000002</v>
+      </c>
+      <c r="H58">
+        <v>7356.857</v>
+      </c>
+      <c r="I58">
+        <v>597.82600000000002</v>
+      </c>
+      <c r="J58">
+        <v>2744.5610000000001</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>-951.95600000000002</v>
+      </c>
+      <c r="N58">
+        <v>1049.4100000000001</v>
+      </c>
+      <c r="O58">
+        <v>4122.4480000000003</v>
+      </c>
+      <c r="P58">
+        <v>2821.0360000000001</v>
+      </c>
+      <c r="Q58">
+        <v>141.82300000000001</v>
+      </c>
+      <c r="R58">
+        <v>42460</v>
+      </c>
+      <c r="S58">
+        <v>0</v>
+      </c>
+      <c r="T58">
+        <v>3234.4090000000001</v>
+      </c>
+      <c r="U58">
+        <v>229.22</v>
+      </c>
+      <c r="V58">
+        <v>134.84399999999999</v>
+      </c>
+      <c r="W58">
+        <v>0</v>
+      </c>
+      <c r="X58">
+        <v>633.16600000000005</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+      <c r="AA58">
+        <v>112.17100000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>142.785</v>
+      </c>
+      <c r="D59">
+        <v>2304.806</v>
+      </c>
+      <c r="E59">
+        <v>995.15300000000002</v>
+      </c>
+      <c r="F59">
+        <v>909.41800000000001</v>
+      </c>
+      <c r="G59">
+        <v>3298.4279999999999</v>
+      </c>
+      <c r="H59">
+        <v>8185.9440000000004</v>
+      </c>
+      <c r="I59">
+        <v>735.13800000000003</v>
+      </c>
+      <c r="J59">
+        <v>3280.3440000000001</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>1168.3820000000001</v>
+      </c>
+      <c r="O59">
+        <v>4878.3050000000003</v>
+      </c>
+      <c r="P59">
+        <v>3341.8850000000002</v>
+      </c>
+      <c r="Q59">
+        <v>43.982999999999997</v>
+      </c>
+      <c r="R59">
+        <v>42551</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>3307.6390000000001</v>
+      </c>
+      <c r="U59">
+        <v>273.20299999999997</v>
+      </c>
+      <c r="V59">
+        <v>227.071</v>
+      </c>
+      <c r="W59">
+        <v>0</v>
+      </c>
+      <c r="X59">
+        <v>538.11400000000003</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+      <c r="AA59">
+        <v>142.785</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>122.688</v>
+      </c>
+      <c r="D60">
+        <v>2207.3429999999998</v>
+      </c>
+      <c r="E60">
+        <v>959.32100000000003</v>
+      </c>
+      <c r="F60">
+        <v>855.45600000000002</v>
+      </c>
+      <c r="G60">
+        <v>3295.5410000000002</v>
+      </c>
+      <c r="H60">
+        <v>8203.9519999999993</v>
+      </c>
+      <c r="I60">
+        <v>682.71900000000005</v>
+      </c>
+      <c r="J60">
+        <v>3191.759</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>1149.2080000000001</v>
+      </c>
+      <c r="O60">
+        <v>4776.6750000000002</v>
+      </c>
+      <c r="P60">
+        <v>3266.8</v>
+      </c>
+      <c r="Q60">
+        <v>-1.3520000000000001</v>
+      </c>
+      <c r="R60">
+        <v>42643</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>3427.277</v>
+      </c>
+      <c r="U60">
+        <v>271.851</v>
+      </c>
+      <c r="V60">
+        <v>162.23599999999999</v>
+      </c>
+      <c r="W60">
+        <v>0</v>
+      </c>
+      <c r="X60">
+        <v>-82.798000000000002</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+      <c r="AA60">
+        <v>122.688</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>860.54899999999998</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>3567.5940000000001</v>
+      </c>
+      <c r="H61">
+        <v>8303.1990000000005</v>
+      </c>
+      <c r="I61">
+        <v>633.77300000000002</v>
+      </c>
+      <c r="J61">
+        <v>3278.79</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>1210.7850000000001</v>
+      </c>
+      <c r="O61">
+        <v>4860.25</v>
+      </c>
+      <c r="P61">
+        <v>3344.8989999999999</v>
+      </c>
+      <c r="Q61">
+        <v>0</v>
+      </c>
+      <c r="R61">
+        <v>42735</v>
+      </c>
+      <c r="S61">
+        <v>42500</v>
+      </c>
+      <c r="T61">
+        <v>3442.9490000000001</v>
+      </c>
+      <c r="U61">
+        <v>227.4</v>
+      </c>
+      <c r="V61">
+        <v>0</v>
+      </c>
+      <c r="W61">
+        <v>0</v>
+      </c>
+      <c r="X61">
+        <v>0</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+      <c r="AA61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>136.27799999999999</v>
+      </c>
+      <c r="D62">
+        <v>2342.8429999999998</v>
+      </c>
+      <c r="E62">
+        <v>973.67</v>
+      </c>
+      <c r="F62">
+        <v>930.09299999999996</v>
+      </c>
+      <c r="G62">
+        <v>3318.1260000000002</v>
+      </c>
+      <c r="H62">
+        <v>8122.2460000000001</v>
+      </c>
+      <c r="I62">
+        <v>651.11699999999996</v>
+      </c>
+      <c r="J62">
+        <v>2938.665</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>-398.75799999999998</v>
+      </c>
+      <c r="N62">
+        <v>1159.701</v>
+      </c>
+      <c r="O62">
+        <v>4515.375</v>
+      </c>
+      <c r="P62">
+        <v>3030.6529999999998</v>
+      </c>
+      <c r="Q62">
+        <v>30.097999999999999</v>
+      </c>
+      <c r="R62">
+        <v>42825</v>
+      </c>
+      <c r="S62">
+        <v>0</v>
+      </c>
+      <c r="T62">
+        <v>3606.8710000000001</v>
+      </c>
+      <c r="U62">
+        <v>264.61399999999998</v>
+      </c>
+      <c r="V62">
+        <v>172.29300000000001</v>
+      </c>
+      <c r="W62">
+        <v>0</v>
+      </c>
+      <c r="X62">
+        <v>-326.38600000000002</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+      <c r="AA62">
+        <v>136.27799999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>150.91399999999999</v>
+      </c>
+      <c r="D63">
+        <v>2458.4110000000001</v>
+      </c>
+      <c r="E63">
+        <v>1001.246</v>
+      </c>
+      <c r="F63">
+        <v>965.00900000000001</v>
+      </c>
+      <c r="G63">
+        <v>3500.7350000000001</v>
+      </c>
+      <c r="H63">
+        <v>8430.9419999999991</v>
+      </c>
+      <c r="I63">
+        <v>724.20100000000002</v>
+      </c>
+      <c r="J63">
+        <v>2924.7620000000002</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>1221.6600000000001</v>
+      </c>
+      <c r="O63">
+        <v>4574.2569999999996</v>
+      </c>
+      <c r="P63">
+        <v>3021.6219999999998</v>
+      </c>
+      <c r="Q63">
+        <v>38.93</v>
+      </c>
+      <c r="R63">
+        <v>42916</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>3856.6849999999999</v>
+      </c>
+      <c r="U63">
+        <v>303.54399999999998</v>
+      </c>
+      <c r="V63">
+        <v>189.804</v>
+      </c>
+      <c r="W63">
+        <v>0</v>
+      </c>
+      <c r="X63">
+        <v>-96.69</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+      <c r="AA63">
+        <v>150.91399999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>122.381</v>
+      </c>
+      <c r="D64">
+        <v>2465.8000000000002</v>
+      </c>
+      <c r="E64">
+        <v>1021.728</v>
+      </c>
+      <c r="F64">
+        <v>956.87599999999998</v>
+      </c>
+      <c r="G64">
+        <v>3668.373</v>
+      </c>
+      <c r="H64">
+        <v>8863.9380000000001</v>
+      </c>
+      <c r="I64">
+        <v>749.85199999999998</v>
+      </c>
+      <c r="J64">
+        <v>3073.7849999999999</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>1302.338</v>
+      </c>
+      <c r="O64">
+        <v>4822.9009999999998</v>
+      </c>
+      <c r="P64">
+        <v>3200.672</v>
+      </c>
+      <c r="Q64">
+        <v>-28.466999999999999</v>
+      </c>
+      <c r="R64">
+        <v>43008</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>4041.0369999999998</v>
+      </c>
+      <c r="U64">
+        <v>275.077</v>
+      </c>
+      <c r="V64">
+        <v>87.146000000000001</v>
+      </c>
+      <c r="W64">
+        <v>0</v>
+      </c>
+      <c r="X64">
+        <v>76.013000000000005</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>-7.1139999999999999</v>
+      </c>
+      <c r="AA64">
+        <v>122.381</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>124.17100000000001</v>
+      </c>
+      <c r="D65">
+        <v>2469.855</v>
+      </c>
+      <c r="E65">
+        <v>1027.106</v>
+      </c>
+      <c r="F65">
+        <v>947.64499999999998</v>
+      </c>
+      <c r="G65">
+        <v>3822.134</v>
+      </c>
+      <c r="H65">
+        <v>9366.8719999999994</v>
+      </c>
+      <c r="I65">
+        <v>788.61300000000006</v>
+      </c>
+      <c r="J65">
+        <v>3339.1120000000001</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>1322.7239999999999</v>
+      </c>
+      <c r="O65">
+        <v>5160.2190000000001</v>
+      </c>
+      <c r="P65">
+        <v>3465.4720000000002</v>
+      </c>
+      <c r="Q65">
+        <v>4.6890000000000001</v>
+      </c>
+      <c r="R65">
+        <v>43100</v>
+      </c>
+      <c r="S65">
+        <v>43000</v>
+      </c>
+      <c r="T65">
+        <v>4206.6530000000002</v>
+      </c>
+      <c r="U65">
+        <v>279.76600000000002</v>
+      </c>
+      <c r="V65">
+        <v>69.656999999999996</v>
+      </c>
+      <c r="W65">
+        <v>0</v>
+      </c>
+      <c r="X65">
+        <v>234.49600000000001</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>-0.55000000000000004</v>
+      </c>
+      <c r="AA65">
+        <v>124.17100000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>152.96</v>
+      </c>
+      <c r="D66">
+        <v>2720.7640000000001</v>
+      </c>
+      <c r="E66">
+        <v>1211.788</v>
+      </c>
+      <c r="F66">
+        <v>1053.971</v>
+      </c>
+      <c r="G66">
+        <v>4039.143</v>
+      </c>
+      <c r="H66">
+        <v>9636.1779999999999</v>
+      </c>
+      <c r="I66">
+        <v>812.66099999999994</v>
+      </c>
+      <c r="J66">
+        <v>3248.6</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>-325.93</v>
+      </c>
+      <c r="N66">
+        <v>1474.788</v>
+      </c>
+      <c r="O66">
+        <v>5217.1970000000001</v>
+      </c>
+      <c r="P66">
+        <v>3390.877</v>
+      </c>
+      <c r="Q66">
+        <v>-34.087000000000003</v>
+      </c>
+      <c r="R66">
+        <v>43190</v>
+      </c>
+      <c r="S66">
+        <v>0</v>
+      </c>
+      <c r="T66">
+        <v>4418.9809999999998</v>
+      </c>
+      <c r="U66">
+        <v>245.679</v>
+      </c>
+      <c r="V66">
+        <v>145.16300000000001</v>
+      </c>
+      <c r="W66">
+        <v>0</v>
+      </c>
+      <c r="X66">
+        <v>-117.506</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+      <c r="AA66">
+        <v>152.96</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>157.00700000000001</v>
+      </c>
+      <c r="D67">
+        <v>3030.7510000000002</v>
+      </c>
+      <c r="E67">
+        <v>1301.5139999999999</v>
+      </c>
+      <c r="F67">
+        <v>1161.8789999999999</v>
+      </c>
+      <c r="G67">
+        <v>4593.6059999999998</v>
+      </c>
+      <c r="H67">
+        <v>11548.630999999999</v>
+      </c>
+      <c r="I67">
+        <v>981.64300000000003</v>
+      </c>
+      <c r="J67">
+        <v>4313.384</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>1788.308</v>
+      </c>
+      <c r="O67">
+        <v>6771.6559999999999</v>
+      </c>
+      <c r="P67">
+        <v>4490.7560000000003</v>
+      </c>
+      <c r="Q67">
+        <v>99.522999999999996</v>
+      </c>
+      <c r="R67">
+        <v>43281</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>4776.9750000000004</v>
+      </c>
+      <c r="U67">
+        <v>345.202</v>
+      </c>
+      <c r="V67">
+        <v>183.506</v>
+      </c>
+      <c r="W67">
+        <v>0</v>
+      </c>
+      <c r="X67">
+        <v>1171.8489999999999</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+      <c r="AA67">
+        <v>157.00700000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>134.102</v>
+      </c>
+      <c r="D68">
+        <v>3122.3780000000002</v>
+      </c>
+      <c r="E68">
+        <v>1255.876</v>
+      </c>
+      <c r="F68">
+        <v>1197.1980000000001</v>
+      </c>
+      <c r="G68">
+        <v>4593.0600000000004</v>
+      </c>
+      <c r="H68">
+        <v>11585.335999999999</v>
+      </c>
+      <c r="I68">
+        <v>941.74699999999996</v>
+      </c>
+      <c r="J68">
+        <v>4299.3490000000002</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>1735.68</v>
+      </c>
+      <c r="O68">
+        <v>6687.92</v>
+      </c>
+      <c r="P68">
+        <v>4417.7139999999999</v>
+      </c>
+      <c r="Q68">
+        <v>-3.8559999999999999</v>
+      </c>
+      <c r="R68">
+        <v>43373</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>4897.4160000000002</v>
+      </c>
+      <c r="U68">
+        <v>341.346</v>
+      </c>
+      <c r="V68">
+        <v>192.49799999999999</v>
+      </c>
+      <c r="W68">
+        <v>0</v>
+      </c>
+      <c r="X68">
+        <v>-75.028999999999996</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>-11.066000000000001</v>
+      </c>
+      <c r="AA68">
+        <v>134.102</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>1154.0830000000001</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>4520.9489999999996</v>
+      </c>
+      <c r="H69">
+        <v>11393.402</v>
+      </c>
+      <c r="I69">
+        <v>942.39800000000002</v>
+      </c>
+      <c r="J69">
+        <v>4189.5780000000004</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>1690.348</v>
+      </c>
+      <c r="O69">
+        <v>6554.65</v>
+      </c>
+      <c r="P69">
+        <v>4351.4970000000003</v>
+      </c>
+      <c r="Q69">
+        <v>0</v>
+      </c>
+      <c r="R69">
+        <v>43465</v>
+      </c>
+      <c r="S69">
+        <v>51000</v>
+      </c>
+      <c r="T69">
+        <v>4838.7520000000004</v>
+      </c>
+      <c r="U69">
+        <v>331.76100000000002</v>
+      </c>
+      <c r="V69">
+        <v>0</v>
+      </c>
+      <c r="W69">
+        <v>0</v>
+      </c>
+      <c r="X69">
+        <v>0</v>
+      </c>
+      <c r="Y69">
+        <v>39.966000000000001</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+      <c r="AA69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>98.048000000000002</v>
+      </c>
+      <c r="D70">
+        <v>3100.3029999999999</v>
+      </c>
+      <c r="E70">
+        <v>1353.491</v>
+      </c>
+      <c r="F70">
+        <v>1208.2639999999999</v>
+      </c>
+      <c r="G70">
+        <v>4644.7700000000004</v>
+      </c>
+      <c r="H70">
+        <v>12665.91</v>
+      </c>
+      <c r="I70">
+        <v>952.68799999999999</v>
+      </c>
+      <c r="J70">
+        <v>4090.7060000000001</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>-352.06200000000001</v>
+      </c>
+      <c r="N70">
+        <v>1971.4880000000001</v>
+      </c>
+      <c r="O70">
+        <v>7809.1360000000004</v>
+      </c>
+      <c r="P70">
+        <v>5584.6210000000001</v>
+      </c>
+      <c r="Q70">
+        <v>-15.803000000000001</v>
+      </c>
+      <c r="R70">
+        <v>43555</v>
+      </c>
+      <c r="S70">
+        <v>0</v>
+      </c>
+      <c r="T70">
+        <v>4856.7740000000003</v>
+      </c>
+      <c r="U70">
+        <v>316.06599999999997</v>
+      </c>
+      <c r="V70">
+        <v>177.22499999999999</v>
+      </c>
+      <c r="W70">
+        <v>0</v>
+      </c>
+      <c r="X70">
+        <v>-132.73099999999999</v>
+      </c>
+      <c r="Y70">
+        <v>1141.316</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+      <c r="AA70">
+        <v>98.048000000000002</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>150.56100000000001</v>
+      </c>
+      <c r="D71">
+        <v>3248.1729999999998</v>
+      </c>
+      <c r="E71">
+        <v>1285.8019999999999</v>
+      </c>
+      <c r="F71">
+        <v>1247.1869999999999</v>
+      </c>
+      <c r="G71">
+        <v>4631.8490000000002</v>
+      </c>
+      <c r="H71">
+        <v>12704.236000000001</v>
+      </c>
+      <c r="I71">
+        <v>1031.952</v>
+      </c>
+      <c r="J71">
+        <v>3921.7669999999998</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>2106.9459999999999</v>
+      </c>
+      <c r="O71">
+        <v>7794.4880000000003</v>
+      </c>
+      <c r="P71">
+        <v>5427.5</v>
+      </c>
+      <c r="Q71">
+        <v>65.346999999999994</v>
+      </c>
+      <c r="R71">
+        <v>43646</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>4909.7479999999996</v>
+      </c>
+      <c r="U71">
+        <v>375.96699999999998</v>
+      </c>
+      <c r="V71">
+        <v>461.17899999999997</v>
+      </c>
+      <c r="W71">
+        <v>0</v>
+      </c>
+      <c r="X71">
+        <v>-339.25700000000001</v>
+      </c>
+      <c r="Y71">
+        <v>1153.4090000000001</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+      <c r="AA71">
+        <v>150.56100000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>152.26300000000001</v>
+      </c>
+      <c r="D72">
+        <v>3147.7730000000001</v>
+      </c>
+      <c r="E72">
+        <v>1223.1969999999999</v>
+      </c>
+      <c r="F72">
+        <v>1217.4590000000001</v>
+      </c>
+      <c r="G72">
+        <v>4483.8580000000002</v>
+      </c>
+      <c r="H72">
+        <v>12411.69</v>
+      </c>
+      <c r="I72">
+        <v>997.87400000000002</v>
+      </c>
+      <c r="J72">
+        <v>3722.904</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>2054.0509999999999</v>
+      </c>
+      <c r="O72">
+        <v>7538.99</v>
+      </c>
+      <c r="P72">
+        <v>5234.8469999999998</v>
+      </c>
+      <c r="Q72">
+        <v>56.142000000000003</v>
+      </c>
+      <c r="R72">
+        <v>43738</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>4872.7</v>
+      </c>
+      <c r="U72">
+        <v>433.39100000000002</v>
+      </c>
+      <c r="V72">
+        <v>326.767</v>
+      </c>
+      <c r="W72">
+        <v>0</v>
+      </c>
+      <c r="X72">
+        <v>-217.70599999999999</v>
+      </c>
+      <c r="Y72">
+        <v>1158.175</v>
+      </c>
+      <c r="Z72">
+        <v>-6.8940000000000001</v>
+      </c>
+      <c r="AA72">
+        <v>152.26300000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>140.38800000000001</v>
+      </c>
+      <c r="D73">
+        <v>3009.86</v>
+      </c>
+      <c r="E73">
+        <v>1131.1320000000001</v>
+      </c>
+      <c r="F73">
+        <v>1199.538</v>
+      </c>
+      <c r="G73">
+        <v>4687.8190000000004</v>
+      </c>
+      <c r="H73">
+        <v>12779.956</v>
+      </c>
+      <c r="I73">
+        <v>942.79499999999996</v>
+      </c>
+      <c r="J73">
+        <v>3707.31</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>2178.5120000000002</v>
+      </c>
+      <c r="O73">
+        <v>7707.299</v>
+      </c>
+      <c r="P73">
+        <v>5425.1989999999996</v>
+      </c>
+      <c r="Q73">
+        <v>91.921000000000006</v>
+      </c>
+      <c r="R73">
+        <v>43830</v>
+      </c>
+      <c r="S73">
+        <v>51000</v>
+      </c>
+      <c r="T73">
+        <v>5072.6570000000002</v>
+      </c>
+      <c r="U73">
+        <v>523.02</v>
+      </c>
+      <c r="V73">
+        <v>98.861999999999995</v>
+      </c>
+      <c r="W73">
+        <v>0</v>
+      </c>
+      <c r="X73">
+        <v>89.025000000000006</v>
+      </c>
+      <c r="Y73">
+        <v>1169.0250000000001</v>
+      </c>
+      <c r="Z73">
+        <v>-0.7</v>
+      </c>
+      <c r="AA73">
+        <v>140.38800000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>145.136</v>
+      </c>
+      <c r="D74">
+        <v>3000.9349999999999</v>
+      </c>
+      <c r="E74">
+        <v>1168.626</v>
+      </c>
+      <c r="F74">
+        <v>1213.8720000000001</v>
+      </c>
+      <c r="G74">
+        <v>4442.6639999999998</v>
+      </c>
+      <c r="H74">
+        <v>12354.07</v>
+      </c>
+      <c r="I74">
+        <v>893.80700000000002</v>
+      </c>
+      <c r="J74">
+        <v>3629.1509999999998</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>-801.43</v>
+      </c>
+      <c r="N74">
+        <v>1938.9680000000001</v>
+      </c>
+      <c r="O74">
+        <v>7342.674</v>
+      </c>
+      <c r="P74">
+        <v>5108.6530000000002</v>
+      </c>
+      <c r="Q74">
+        <v>-196.79400000000001</v>
+      </c>
+      <c r="R74">
+        <v>43921</v>
+      </c>
+      <c r="S74">
+        <v>0</v>
+      </c>
+      <c r="T74">
+        <v>5011.3959999999997</v>
+      </c>
+      <c r="U74">
+        <v>332.78399999999999</v>
+      </c>
+      <c r="V74">
+        <v>194.56299999999999</v>
+      </c>
+      <c r="W74">
+        <v>0</v>
+      </c>
+      <c r="X74">
+        <v>-334.73899999999998</v>
+      </c>
+      <c r="Y74">
+        <v>1149.3219999999999</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+      <c r="AA74">
+        <v>145.136</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>118.792</v>
+      </c>
+      <c r="D75">
+        <v>2626.3229999999999</v>
+      </c>
+      <c r="E75">
+        <v>1125.816</v>
+      </c>
+      <c r="F75">
+        <v>1016.669</v>
+      </c>
+      <c r="G75">
+        <v>4106.973</v>
+      </c>
+      <c r="H75">
+        <v>12035.299000000001</v>
+      </c>
+      <c r="I75">
+        <v>756.846</v>
+      </c>
+      <c r="J75">
+        <v>3114.2530000000002</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>1949.768</v>
+      </c>
+      <c r="O75">
+        <v>6863.2809999999999</v>
+      </c>
+      <c r="P75">
+        <v>4606.8959999999997</v>
+      </c>
+      <c r="Q75">
+        <v>138.363</v>
+      </c>
+      <c r="R75">
+        <v>44012</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>5172.018</v>
+      </c>
+      <c r="U75">
+        <v>476.42599999999999</v>
+      </c>
+      <c r="V75">
+        <v>718.48900000000003</v>
+      </c>
+      <c r="W75">
+        <v>0</v>
+      </c>
+      <c r="X75">
+        <v>-555.41499999999996</v>
+      </c>
+      <c r="Y75">
+        <v>1155.702</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+      <c r="AA75">
+        <v>118.792</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>193.483</v>
+      </c>
+      <c r="D76">
+        <v>3047.6840000000002</v>
+      </c>
+      <c r="E76">
+        <v>1174.5039999999999</v>
+      </c>
+      <c r="F76">
+        <v>1199.375</v>
+      </c>
+      <c r="G76">
+        <v>4102.5079999999998</v>
+      </c>
+      <c r="H76">
+        <v>12161.212</v>
+      </c>
+      <c r="I76">
+        <v>847.73299999999995</v>
+      </c>
+      <c r="J76">
+        <v>2961.0709999999999</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>1926.4949999999999</v>
+      </c>
+      <c r="O76">
+        <v>6721.549</v>
+      </c>
+      <c r="P76">
+        <v>4492.3339999999998</v>
+      </c>
+      <c r="Q76">
+        <v>-55.043999999999997</v>
+      </c>
+      <c r="R76">
+        <v>44104</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>5439.6629999999996</v>
+      </c>
+      <c r="U76">
+        <v>421.38200000000001</v>
+      </c>
+      <c r="V76">
+        <v>221.589</v>
+      </c>
+      <c r="W76">
+        <v>0</v>
+      </c>
+      <c r="X76">
+        <v>-260.62900000000002</v>
+      </c>
+      <c r="Y76">
+        <v>1170.683</v>
+      </c>
+      <c r="Z76">
+        <v>-6.9169999999999998</v>
+      </c>
+      <c r="AA76">
+        <v>193.483</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
         <v>181.012</v>
       </c>
-      <c r="D42">
+      <c r="D77">
         <v>2953.8879999999999</v>
       </c>
-      <c r="E42">
+      <c r="E77">
         <v>1073.3889999999999</v>
       </c>
-      <c r="F42">
+      <c r="F77">
         <v>1170.4960000000001</v>
       </c>
-      <c r="G42">
+      <c r="G77">
         <v>4034.0320000000002</v>
       </c>
-      <c r="H42">
+      <c r="H77">
         <v>12360.532999999999</v>
       </c>
-      <c r="I42">
+      <c r="I77">
         <v>932.40599999999995</v>
       </c>
-      <c r="J42">
+      <c r="J77">
         <v>2767.5439999999999</v>
       </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
         <v>1988.491</v>
       </c>
-      <c r="O42">
+      <c r="O77">
         <v>6665.1559999999999</v>
       </c>
-      <c r="P42">
+      <c r="P77">
         <v>4348.1390000000001</v>
       </c>
-      <c r="Q42">
+      <c r="Q77">
         <v>-109.22799999999999</v>
       </c>
-      <c r="R42">
+      <c r="R77">
         <v>44196</v>
       </c>
-      <c r="S42">
+      <c r="S77">
         <v>44000</v>
       </c>
-      <c r="T42">
+      <c r="T77">
         <v>5695.3770000000004</v>
       </c>
-      <c r="U42">
+      <c r="U77">
         <v>312.154</v>
       </c>
-      <c r="V42">
+      <c r="V77">
         <v>309.22899999999998</v>
       </c>
-      <c r="W42">
-        <v>0</v>
-      </c>
-      <c r="X42">
+      <c r="W77">
+        <v>0</v>
+      </c>
+      <c r="X77">
         <v>-361.76799999999997</v>
       </c>
-      <c r="Y42">
+      <c r="Y77">
         <v>1243.06</v>
       </c>
-      <c r="Z42">
+      <c r="Z77">
         <v>-0.8</v>
       </c>
-      <c r="AA42">
+      <c r="AA77">
         <v>181.012</v>
       </c>
     </row>
